--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -519,37 +519,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.69660767672453</v>
+        <v>9.999999999997414</v>
       </c>
       <c r="G2">
-        <v>128.734085947043</v>
+        <v>98.78643070691379</v>
       </c>
       <c r="H2">
-        <v>11.02763376071487</v>
+        <v>11.58227239646509</v>
       </c>
       <c r="Q2">
-        <v>6.83321011146221E-26</v>
+        <v>1.57383171468821E-25</v>
       </c>
       <c r="R2">
-        <v>8.276933579304194E-13</v>
+        <v>1.399170723055266E-12</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0002906999999936488</v>
+        <v>0.0003051999999996724</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -557,37 +557,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.7659902116159</v>
+        <v>10.00000000000025</v>
       </c>
       <c r="G3">
-        <v>129.658408819594</v>
+        <v>75.06396084646718</v>
       </c>
       <c r="H3">
-        <v>5.001143748173931</v>
+        <v>11.64389392130598</v>
       </c>
       <c r="Q3">
-        <v>5.566621855584215E-28</v>
+        <v>3.491257575245762E-27</v>
       </c>
       <c r="R3">
-        <v>3.846414457974204E-13</v>
+        <v>1.573624825501344E-13</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.0002778999999577536</v>
+        <v>0.0002814999999998236</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -595,37 +595,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.61977059638926</v>
+        <v>9.99999999999994</v>
       </c>
       <c r="G4">
-        <v>4.666721729020002</v>
+        <v>78.47908238556967</v>
       </c>
       <c r="H4">
-        <v>10.49662477878744</v>
+        <v>3.311114781934677</v>
       </c>
       <c r="Q4">
-        <v>2.450714024471038E-28</v>
+        <v>4.9935991340932E-27</v>
       </c>
       <c r="R4">
-        <v>1.561795780167998E-13</v>
+        <v>2.490155076034537E-13</v>
       </c>
       <c r="S4" t="s">
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001509600000019873</v>
+        <v>0.0004458999999883417</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -633,37 +633,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.78590561585951</v>
+        <v>9.999999999998241</v>
       </c>
       <c r="G5">
-        <v>127.4666080712498</v>
+        <v>99.14362246342118</v>
       </c>
       <c r="H5">
-        <v>7.909047389130016</v>
+        <v>11.49777387141474</v>
       </c>
       <c r="Q5">
-        <v>1.990060580640521E-26</v>
+        <v>2.749561431291649E-26</v>
       </c>
       <c r="R5">
-        <v>6.102294050633404E-13</v>
+        <v>9.007960950547261E-13</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.0002908000000161337</v>
+        <v>0.0002758999999912248</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -671,37 +671,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>48.5163427556321</v>
+        <v>9.999999999999094</v>
       </c>
       <c r="G6">
-        <v>98.5018048516192</v>
+        <v>174.0653710224625</v>
       </c>
       <c r="H6">
-        <v>14.726843599655</v>
+        <v>9.566786990107806</v>
       </c>
       <c r="Q6">
-        <v>4.886535248331831E-26</v>
+        <v>5.717638151565102E-26</v>
       </c>
       <c r="R6">
-        <v>1.887387080325954E-12</v>
+        <v>3.938903713713462E-13</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.0002781000000027234</v>
+        <v>0.000298199999988924</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -709,37 +709,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.98969269903706</v>
+        <v>9.99999999999941</v>
       </c>
       <c r="G7">
-        <v>156.731815111931</v>
+        <v>39.95877079614989</v>
       </c>
       <c r="H7">
-        <v>7.06719155339397</v>
+        <v>13.44878767412958</v>
       </c>
       <c r="Q7">
-        <v>4.643349010518935E-26</v>
+        <v>3.447912254120638E-26</v>
       </c>
       <c r="R7">
-        <v>3.200949538208658E-13</v>
+        <v>3.763774354605576E-13</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.0002787000000239459</v>
+        <v>0.000358999999988896</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -747,37 +747,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.1787068146328</v>
+        <v>10.00000000000325</v>
       </c>
       <c r="G8">
-        <v>59.75636495421639</v>
+        <v>160.714827258476</v>
       </c>
       <c r="H8">
-        <v>13.21229123058239</v>
+        <v>6.983757663617498</v>
       </c>
       <c r="Q8">
-        <v>1.517557530537835E-26</v>
+        <v>4.459059470519461E-25</v>
       </c>
       <c r="R8">
-        <v>1.351700972222638E-12</v>
+        <v>1.855109231940885E-12</v>
       </c>
       <c r="S8" t="s">
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.0002749000000221713</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -785,37 +785,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.433873021831284</v>
+        <v>9.999999999998757</v>
       </c>
       <c r="G9">
-        <v>140.3853826032205</v>
+        <v>13.73549208731055</v>
       </c>
       <c r="H9">
-        <v>9.384092314413964</v>
+        <v>12.35902550688143</v>
       </c>
       <c r="Q9">
-        <v>3.986312048352821E-25</v>
+        <v>4.892002225771034E-27</v>
       </c>
       <c r="R9">
-        <v>1.976896238777066E-12</v>
+        <v>2.624424237825586E-13</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0004180000000246764</v>
+        <v>0.0002776000000039858</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -823,37 +823,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.30432312563142</v>
+        <v>10.00000000000216</v>
       </c>
       <c r="G10">
-        <v>174.3373193077676</v>
+        <v>157.2172925025259</v>
       </c>
       <c r="H10">
-        <v>13.69194540213857</v>
+        <v>14.62248795385512</v>
       </c>
       <c r="Q10">
-        <v>9.722063327846646E-29</v>
+        <v>2.526774896729421E-25</v>
       </c>
       <c r="R10">
-        <v>1.304556545112437E-13</v>
+        <v>1.057867670148459E-12</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.0002905999999711639</v>
+        <v>0.0002716000000049235</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -861,37 +861,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.466836924857153</v>
+        <v>10.00000000000069</v>
       </c>
       <c r="G11">
-        <v>90.33742658677501</v>
+        <v>1.867347699426255</v>
       </c>
       <c r="H11">
-        <v>9.957732931343067</v>
+        <v>9.02249510578469</v>
       </c>
       <c r="Q11">
-        <v>5.404862947690163E-26</v>
+        <v>7.699550984574394E-28</v>
       </c>
       <c r="R11">
-        <v>6.541536853730154E-13</v>
+        <v>1.695017775519381E-13</v>
       </c>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.0002716000000191343</v>
+        <v>0.0002676000000008116</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -899,37 +899,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.70942894700313</v>
+        <v>10.00000000000096</v>
       </c>
       <c r="G12">
-        <v>3.735350884691405</v>
+        <v>138.8377157880089</v>
       </c>
       <c r="H12">
-        <v>11.33648234926548</v>
+        <v>3.249023392313008</v>
       </c>
       <c r="Q12">
-        <v>5.440046515858789E-29</v>
+        <v>1.650549162750408E-26</v>
       </c>
       <c r="R12">
-        <v>6.416041022803501E-13</v>
+        <v>4.404164726515199E-13</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.0002809000000070228</v>
+        <v>0.0003444999999970833</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -937,37 +937,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13.11213599945474</v>
+        <v>9.999999999999782</v>
       </c>
       <c r="G13">
-        <v>3.505543467772722</v>
+        <v>32.44854399781517</v>
       </c>
       <c r="H13">
-        <v>9.632185264982397</v>
+        <v>3.233702897851614</v>
       </c>
       <c r="Q13">
-        <v>2.620378841549802E-28</v>
+        <v>1.766399262253356E-27</v>
       </c>
       <c r="R13">
-        <v>2.951638649398942E-13</v>
+        <v>2.105070364895911E-13</v>
       </c>
       <c r="S13" t="s">
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.0002617999999756648</v>
+        <v>0.0005725999999981468</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -975,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>11.93732790708456</v>
+        <v>9.999999999999062</v>
       </c>
       <c r="G14">
-        <v>133.2089453727746</v>
+        <v>27.74931162833708</v>
       </c>
       <c r="H14">
-        <v>7.633150151850847</v>
+        <v>11.88059635818622</v>
       </c>
       <c r="Q14">
-        <v>1.323410820954998E-26</v>
+        <v>1.319857622256056E-26</v>
       </c>
       <c r="R14">
-        <v>3.035506477361629E-13</v>
+        <v>5.42905992924613E-13</v>
       </c>
       <c r="S14" t="s">
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.0002611000000456443</v>
+        <v>0.0003089000000073838</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1013,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.99660847582493</v>
+        <v>10.00000000000223</v>
       </c>
       <c r="G15">
-        <v>42.7574196062798</v>
+        <v>139.986433903285</v>
       </c>
       <c r="H15">
-        <v>13.24278532661593</v>
+        <v>5.850494640421292</v>
       </c>
       <c r="Q15">
-        <v>1.545565690817504E-27</v>
+        <v>5.018586823001362E-25</v>
       </c>
       <c r="R15">
-        <v>6.60220417710541E-13</v>
+        <v>1.439716265115566E-12</v>
       </c>
       <c r="S15" t="s">
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0002859000000512424</v>
+        <v>0.0002817000000021608</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1051,37 +1051,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.12745046976056</v>
+        <v>9.999999999996337</v>
       </c>
       <c r="G16">
-        <v>139.1697093742752</v>
+        <v>92.50980187907885</v>
       </c>
       <c r="H16">
-        <v>13.70427685724147</v>
+        <v>12.27798062494597</v>
       </c>
       <c r="Q16">
-        <v>1.256655458074966E-25</v>
+        <v>1.564065047018572E-25</v>
       </c>
       <c r="R16">
-        <v>1.879402611816112E-12</v>
+        <v>1.883372246894023E-12</v>
       </c>
       <c r="S16" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0002597000000150729</v>
+        <v>0.0003269999999986339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1089,37 +1089,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.19679637708607</v>
+        <v>10.00000000000144</v>
       </c>
       <c r="G17">
-        <v>32.20126648579316</v>
+        <v>152.7871855083428</v>
       </c>
       <c r="H17">
-        <v>5.543632143062426</v>
+        <v>5.146751099052983</v>
       </c>
       <c r="Q17">
-        <v>2.329524869414778E-28</v>
+        <v>1.173187605757863E-25</v>
       </c>
       <c r="R17">
-        <v>1.188731210263281E-12</v>
+        <v>7.591255586243814E-13</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.0002959999999916363</v>
+        <v>0.0002855000000039354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1127,37 +1127,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.04809856190989</v>
+        <v>10.00000000000197</v>
       </c>
       <c r="G18">
-        <v>94.16940145212506</v>
+        <v>40.1923942476422</v>
       </c>
       <c r="H18">
-        <v>10.5070145658123</v>
+        <v>9.277960096809171</v>
       </c>
       <c r="Q18">
-        <v>4.491270086385002E-27</v>
+        <v>8.705420971541352E-27</v>
       </c>
       <c r="R18">
-        <v>2.711285516311833E-13</v>
+        <v>7.428597424122303E-13</v>
       </c>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.0002799000000095475</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1165,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.25992512091931</v>
+        <v>10.00000000000058</v>
       </c>
       <c r="G19">
-        <v>95.50561600895526</v>
+        <v>53.03970048367652</v>
       </c>
       <c r="H19">
-        <v>6.915207869474707</v>
+        <v>9.367041067264816</v>
       </c>
       <c r="Q19">
-        <v>3.995741096821626E-27</v>
+        <v>1.236425621730658E-26</v>
       </c>
       <c r="R19">
-        <v>2.026745742707672E-13</v>
+        <v>5.206459328921716E-13</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.0002691000000254462</v>
+        <v>0.0002905000000055225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1203,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.26684087828671</v>
+        <v>9.999999999999078</v>
       </c>
       <c r="G20">
-        <v>90.98160727227396</v>
+        <v>117.0673635131245</v>
       </c>
       <c r="H20">
-        <v>13.78601470921765</v>
+        <v>9.065440484817248</v>
       </c>
       <c r="Q20">
-        <v>7.556547781608008E-27</v>
+        <v>1.077094284098826E-26</v>
       </c>
       <c r="R20">
-        <v>6.894659882887601E-13</v>
+        <v>4.424496747875441E-13</v>
       </c>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.0004885999999828528</v>
+        <v>0.0002803000000000111</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1241,37 +1241,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>9.389012078723649</v>
+        <v>10.00000000000032</v>
       </c>
       <c r="G21">
-        <v>137.0249490014743</v>
+        <v>17.55604831490087</v>
       </c>
       <c r="H21">
-        <v>7.469379731661233</v>
+        <v>12.13499660009877</v>
       </c>
       <c r="Q21">
-        <v>9.195266497439428E-26</v>
+        <v>4.882576402599991E-28</v>
       </c>
       <c r="R21">
-        <v>9.825339235423536E-13</v>
+        <v>1.664169249956297E-13</v>
       </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.0002646000000368076</v>
+        <v>0.000290899999995986</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1279,37 +1279,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.46588604848403</v>
+        <v>10.00000000000243</v>
       </c>
       <c r="G22">
-        <v>161.588471023693</v>
+        <v>105.8635441939112</v>
       </c>
       <c r="H22">
-        <v>13.91530729475035</v>
+        <v>13.77256473491728</v>
       </c>
       <c r="Q22">
-        <v>7.500989286745549E-26</v>
+        <v>8.201218541477911E-26</v>
       </c>
       <c r="R22">
-        <v>9.965239619777248E-13</v>
+        <v>1.226417627400501E-12</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0002612000000112857</v>
+        <v>0.000267100000002074</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.192619636410691</v>
+        <v>10.0000000000003</v>
       </c>
       <c r="G23">
-        <v>52.03973876216703</v>
+        <v>8.770478545643451</v>
       </c>
       <c r="H23">
-        <v>12.20966346831218</v>
+        <v>6.469315917477877</v>
       </c>
       <c r="Q23">
-        <v>9.683215470920279E-27</v>
+        <v>9.048790244200756E-28</v>
       </c>
       <c r="R23">
-        <v>3.264941222500396E-14</v>
+        <v>9.177333998868627E-14</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.0002962000000366061</v>
+        <v>0.0003089000000073838</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1355,37 +1355,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>14.3807241811476</v>
+        <v>9.999999999999842</v>
       </c>
       <c r="G24">
-        <v>86.70259111740432</v>
+        <v>37.52289672459212</v>
       </c>
       <c r="H24">
-        <v>9.205380353143518</v>
+        <v>8.780172741160456</v>
       </c>
       <c r="Q24">
-        <v>2.550291113542266E-27</v>
+        <v>2.537081495641133E-26</v>
       </c>
       <c r="R24">
-        <v>1.372472370686313E-13</v>
+        <v>5.643207426460477E-14</v>
       </c>
       <c r="S24" t="s">
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.0002711000000203967</v>
+        <v>0.0003148999999922353</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1393,37 +1393,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.27840477309821</v>
+        <v>10.00000000000659</v>
       </c>
       <c r="G25">
-        <v>170.4532686866653</v>
+        <v>93.11361909239348</v>
       </c>
       <c r="H25">
-        <v>12.65459759396983</v>
+        <v>14.36355124578945</v>
       </c>
       <c r="Q25">
-        <v>8.001177326047753E-27</v>
+        <v>5.224745061032985E-25</v>
       </c>
       <c r="R25">
-        <v>2.823937891215798E-13</v>
+        <v>3.316972817234695E-12</v>
       </c>
       <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.0002733000000034735</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1431,37 +1431,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>48.20077865011337</v>
+        <v>10.00000000000158</v>
       </c>
       <c r="G26">
-        <v>125.9121689909304</v>
+        <v>172.8031146004643</v>
       </c>
       <c r="H26">
-        <v>14.99867292623861</v>
+        <v>11.39414459939682</v>
       </c>
       <c r="Q26">
-        <v>7.261923480204566E-27</v>
+        <v>3.245881656604578E-25</v>
       </c>
       <c r="R26">
-        <v>3.006370306294801E-13</v>
+        <v>7.061762075946137E-13</v>
       </c>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.0002796999999645777</v>
+        <v>0.0003334999999964339</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1469,37 +1469,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>44.15558614822564</v>
+        <v>10.00000000000999</v>
       </c>
       <c r="G27">
-        <v>104.8098471610479</v>
+        <v>156.6223445928929</v>
       </c>
       <c r="H27">
-        <v>7.788389407010492</v>
+        <v>9.98732314408398</v>
       </c>
       <c r="Q27">
-        <v>3.398682526244451E-28</v>
+        <v>2.724252291694516E-24</v>
       </c>
       <c r="R27">
-        <v>4.258869661603471E-13</v>
+        <v>5.114846274195015E-12</v>
       </c>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.0002963000000022475</v>
+        <v>0.0002767000000005737</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1507,37 +1507,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18.85707286812532</v>
+        <v>9.99999999999935</v>
       </c>
       <c r="G28">
-        <v>93.49046627494694</v>
+        <v>55.42829147249055</v>
       </c>
       <c r="H28">
-        <v>12.68297661538109</v>
+        <v>9.23269775166338</v>
       </c>
       <c r="Q28">
-        <v>1.306533547930704E-26</v>
+        <v>1.086972462622943E-26</v>
       </c>
       <c r="R28">
-        <v>5.910562934360427E-13</v>
+        <v>2.750855996541052E-13</v>
       </c>
       <c r="S28" t="s">
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.0002987999999959357</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1545,37 +1545,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>24.15746347334786</v>
+        <v>9.999999999998499</v>
       </c>
       <c r="G29">
-        <v>146.6250732890202</v>
+        <v>76.62985389339823</v>
       </c>
       <c r="H29">
-        <v>12.35397290199563</v>
+        <v>12.7750048859323</v>
       </c>
       <c r="Q29">
-        <v>4.409332752105297E-27</v>
+        <v>5.762503926540151E-26</v>
       </c>
       <c r="R29">
-        <v>4.236482171985837E-13</v>
+        <v>7.815698361327125E-13</v>
       </c>
       <c r="S29" t="s">
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.0002704999999991742</v>
+        <v>0.0009905000000003383</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1583,37 +1583,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>37.80561840301137</v>
+        <v>10.00000000000132</v>
       </c>
       <c r="G30">
-        <v>101.023128418982</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="H30">
-        <v>6.249670920092925</v>
+        <v>9.734875227933829</v>
       </c>
       <c r="Q30">
-        <v>1.053807030522547E-27</v>
+        <v>8.396640111516376E-26</v>
       </c>
       <c r="R30">
-        <v>4.161053330876845E-13</v>
+        <v>7.680090227218049E-13</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.0002686999999923501</v>
+        <v>0.0002697000000040362</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1621,37 +1621,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>43.8691993506537</v>
+        <v>10.00000000000624</v>
       </c>
       <c r="G31">
-        <v>51.28307374094558</v>
+        <v>155.4767974026072</v>
       </c>
       <c r="H31">
-        <v>5.732563880839487</v>
+        <v>6.418871582737655</v>
       </c>
       <c r="Q31">
-        <v>5.466977439204624E-29</v>
+        <v>2.233313541919983E-24</v>
       </c>
       <c r="R31">
-        <v>1.609780043316936E-12</v>
+        <v>3.622102705308351E-12</v>
       </c>
       <c r="S31" t="s">
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.0002615999999875385</v>
+        <v>0.0003481999999905838</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1659,37 +1659,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>33.986459123086</v>
+        <v>9.999999999997865</v>
       </c>
       <c r="G32">
-        <v>68.53472813432559</v>
+        <v>115.9458364923006</v>
       </c>
       <c r="H32">
-        <v>11.63047905336099</v>
+        <v>7.568981875619218</v>
       </c>
       <c r="Q32">
-        <v>3.496307123373105E-26</v>
+        <v>1.397788308414984E-25</v>
       </c>
       <c r="R32">
-        <v>1.577339910054503E-12</v>
+        <v>1.08459188948537E-12</v>
       </c>
       <c r="S32" t="s">
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.0002752000000327826</v>
+        <v>0.0002733999999975367</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1697,37 +1697,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>17.87242197471989</v>
+        <v>9.99999999999703</v>
       </c>
       <c r="G33">
-        <v>172.4590019734219</v>
+        <v>51.48968789889092</v>
       </c>
       <c r="H33">
-        <v>12.7031293221863</v>
+        <v>14.49726679822273</v>
       </c>
       <c r="Q33">
-        <v>5.523888686970615E-26</v>
+        <v>1.356809542178877E-25</v>
       </c>
       <c r="R33">
-        <v>8.436985466955474E-13</v>
+        <v>1.45016433028146E-12</v>
       </c>
       <c r="S33" t="s">
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.0002634999999600041</v>
+        <v>0.0003085999999967726</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1735,37 +1735,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>43.65001702819352</v>
+        <v>9.999999999998044</v>
       </c>
       <c r="G34">
-        <v>67.08800789555252</v>
+        <v>154.6000681127483</v>
       </c>
       <c r="H34">
-        <v>10.55128777998785</v>
+        <v>7.472533859701364</v>
       </c>
       <c r="Q34">
-        <v>3.035115061075671E-27</v>
+        <v>7.094286834014942E-26</v>
       </c>
       <c r="R34">
-        <v>7.553626950422201E-13</v>
+        <v>1.023495096591595E-12</v>
       </c>
       <c r="S34" t="s">
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.000267499999949905</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1773,37 +1773,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>16.18295573469502</v>
+        <v>10.00000000000062</v>
       </c>
       <c r="G35">
-        <v>80.99557578914585</v>
+        <v>44.73182293878994</v>
       </c>
       <c r="H35">
-        <v>9.109408029963243</v>
+        <v>8.399705052610825</v>
       </c>
       <c r="Q35">
-        <v>5.845323248559432E-26</v>
+        <v>2.942553477536035E-26</v>
       </c>
       <c r="R35">
-        <v>9.523097918669366E-13</v>
+        <v>5.208158148627041E-13</v>
       </c>
       <c r="S35" t="s">
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.0002795000000332948</v>
+        <v>0.0002723000000059983</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>6.735275639658934</v>
+        <v>10.00000000000078</v>
       </c>
       <c r="G36">
-        <v>140.4180828944434</v>
+        <v>6.941102558654666</v>
       </c>
       <c r="H36">
-        <v>5.927037553335165</v>
+        <v>12.36120552629504</v>
       </c>
       <c r="Q36">
-        <v>1.600029693266348E-24</v>
+        <v>7.330597334736447E-28</v>
       </c>
       <c r="R36">
-        <v>3.763050846118098E-12</v>
+        <v>3.682557603205425E-13</v>
       </c>
       <c r="S36" t="s">
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.000337800000011157</v>
+        <v>0.0002803999999940743</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1849,37 +1849,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>25.61247267008253</v>
+        <v>10.00000000000048</v>
       </c>
       <c r="G37">
-        <v>55.50292925368826</v>
+        <v>82.4498906803431</v>
       </c>
       <c r="H37">
-        <v>7.314870450354578</v>
+        <v>6.700195283579202</v>
       </c>
       <c r="Q37">
-        <v>2.683666511412516E-27</v>
+        <v>3.03376851490838E-27</v>
       </c>
       <c r="R37">
-        <v>5.615853097476909E-13</v>
+        <v>3.479333135402407E-13</v>
       </c>
       <c r="S37" t="s">
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.0002711000000203967</v>
+        <v>0.0002833000000066477</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1887,37 +1887,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>37.78282362180205</v>
+        <v>9.999999999995921</v>
       </c>
       <c r="G38">
-        <v>108.2905582266429</v>
+        <v>131.1312944872304</v>
       </c>
       <c r="H38">
-        <v>14.52180667405819</v>
+        <v>10.21937054843693</v>
       </c>
       <c r="Q38">
-        <v>4.778623038485067E-27</v>
+        <v>2.900821589771078E-25</v>
       </c>
       <c r="R38">
-        <v>6.945159110427114E-13</v>
+        <v>2.062704452904392E-12</v>
       </c>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.0002977000000328189</v>
+        <v>0.0002809000000070228</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1925,37 +1925,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>47.50234712857234</v>
+        <v>10.00000000000742</v>
       </c>
       <c r="G39">
-        <v>83.53767137482143</v>
+        <v>170.0093885143071</v>
       </c>
       <c r="H39">
-        <v>6.927950289569717</v>
+        <v>8.569178091661451</v>
       </c>
       <c r="Q39">
-        <v>8.252442840864399E-27</v>
+        <v>2.996467952181543E-24</v>
       </c>
       <c r="R39">
-        <v>1.600267842778238E-12</v>
+        <v>3.938083868388292E-12</v>
       </c>
       <c r="S39" t="s">
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.0002757999999971616</v>
+        <v>0.0002797000000072103</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1963,37 +1963,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>22.314790378249</v>
+        <v>10.00000000000427</v>
       </c>
       <c r="G40">
-        <v>154.7474123863138</v>
+        <v>69.25916151301973</v>
       </c>
       <c r="H40">
-        <v>14.44199635807138</v>
+        <v>13.31649415909409</v>
       </c>
       <c r="Q40">
-        <v>6.485777635743004E-26</v>
+        <v>3.995986168224073E-25</v>
       </c>
       <c r="R40">
-        <v>8.804756908914247E-13</v>
+        <v>2.108457883146427E-12</v>
       </c>
       <c r="S40" t="s">
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.0003914999999778956</v>
+        <v>0.0002886000000046351</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2001,37 +2001,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>29.61001202654331</v>
+        <v>9.99999999999652</v>
       </c>
       <c r="G41">
-        <v>143.6218238308697</v>
+        <v>98.44004810616408</v>
       </c>
       <c r="H41">
-        <v>13.20401879898569</v>
+        <v>12.57478825538565</v>
       </c>
       <c r="Q41">
-        <v>9.457130369431989E-27</v>
+        <v>2.358199570047257E-25</v>
       </c>
       <c r="R41">
-        <v>5.049086849894763E-13</v>
+        <v>1.702351710219153E-12</v>
       </c>
       <c r="S41" t="s">
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.0002725000000509681</v>
+        <v>0.0002805000000023483</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2039,37 +2039,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>23.34591626361295</v>
+        <v>9.999999999999373</v>
       </c>
       <c r="G42">
-        <v>9.965887220134</v>
+        <v>73.38366505445859</v>
       </c>
       <c r="H42">
-        <v>12.88534877486884</v>
+        <v>3.664392481341835</v>
       </c>
       <c r="Q42">
-        <v>6.054071568143839E-28</v>
+        <v>1.48695726888613E-26</v>
       </c>
       <c r="R42">
-        <v>2.810614657910623E-13</v>
+        <v>6.136004363808575E-13</v>
       </c>
       <c r="S42" t="s">
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.0002817000000163716</v>
+        <v>0.0002893999999997732</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2077,37 +2077,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>16.29156306852213</v>
+        <v>10</v>
       </c>
       <c r="G43">
-        <v>8.297247721070013</v>
+        <v>45.1662522740878</v>
       </c>
       <c r="H43">
-        <v>11.76816241110516</v>
+        <v>3.553149848071313</v>
       </c>
       <c r="Q43">
-        <v>9.646656742478307E-28</v>
+        <v>2.839596557584904E-27</v>
       </c>
       <c r="R43">
-        <v>1.111910459579896E-13</v>
+        <v>5.611680062118079E-14</v>
       </c>
       <c r="S43" t="s">
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.0002870000000143591</v>
+        <v>0.0002814000000057604</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2115,37 +2115,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>21.85430534813205</v>
+        <v>10.0000000000001</v>
       </c>
       <c r="G44">
-        <v>171.1285751537853</v>
+        <v>67.4172213925235</v>
       </c>
       <c r="H44">
-        <v>12.31993941811462</v>
+        <v>14.40857167691951</v>
       </c>
       <c r="Q44">
-        <v>5.272872809189515E-27</v>
+        <v>9.35486018802618E-27</v>
       </c>
       <c r="R44">
-        <v>1.830828500154616E-13</v>
+        <v>1.499901031918209E-13</v>
       </c>
       <c r="S44" t="s">
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.0002704999999991742</v>
+        <v>0.0003148999999922353</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2153,37 +2153,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>10.17745548753699</v>
+        <v>9.999999999999327</v>
       </c>
       <c r="G45">
-        <v>109.6319770703071</v>
+        <v>20.70982195015897</v>
       </c>
       <c r="H45">
-        <v>6.333909641857259</v>
+        <v>10.30879847135385</v>
       </c>
       <c r="Q45">
-        <v>1.526854758549902E-25</v>
+        <v>1.456693643776247E-27</v>
       </c>
       <c r="R45">
-        <v>1.547314061236895E-12</v>
+        <v>1.602710975801096E-13</v>
       </c>
       <c r="S45" t="s">
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.0002636000000393324</v>
+        <v>0.0003018999999966354</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2191,37 +2191,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>42.56789668995479</v>
+        <v>9.999999999999565</v>
       </c>
       <c r="G46">
-        <v>18.8632987865703</v>
+        <v>150.2715867598149</v>
       </c>
       <c r="H46">
-        <v>12.4464048167995</v>
+        <v>4.257553252437812</v>
       </c>
       <c r="Q46">
-        <v>3.202086785819851E-28</v>
+        <v>1.792939687210677E-26</v>
       </c>
       <c r="R46">
-        <v>1.046751289412109E-12</v>
+        <v>4.894303937131265E-13</v>
       </c>
       <c r="S46" t="s">
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.0002762999999958993</v>
+        <v>0.0002752000000043608</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2229,37 +2229,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>49.50551810640258</v>
+        <v>10.0000000000023</v>
       </c>
       <c r="G47">
-        <v>98.91805083203776</v>
+        <v>178.0220724256055</v>
       </c>
       <c r="H47">
-        <v>7.814473019550394</v>
+        <v>9.594536722139464</v>
       </c>
       <c r="Q47">
-        <v>2.66346831890314E-28</v>
+        <v>1.0594187827063E-24</v>
       </c>
       <c r="R47">
-        <v>4.14606207036743E-13</v>
+        <v>1.166043327755647E-12</v>
       </c>
       <c r="S47" t="s">
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.0002738000000022112</v>
+        <v>0.0004145999999991545</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2267,37 +2267,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>40.27245578626027</v>
+        <v>10.00000000001387</v>
       </c>
       <c r="G48">
-        <v>114.2700670895106</v>
+        <v>141.0898231450339</v>
       </c>
       <c r="H48">
-        <v>7.490430915159115</v>
+        <v>10.61800447265235</v>
       </c>
       <c r="Q48">
-        <v>1.029030581044378E-27</v>
+        <v>2.760104093465237E-24</v>
       </c>
       <c r="R48">
-        <v>1.084265681384753E-12</v>
+        <v>6.955091689467136E-12</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.00028399999996509</v>
+        <v>0.000286799999997811</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2305,37 +2305,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10.10698123521479</v>
+        <v>10.00000000000056</v>
       </c>
       <c r="G49">
-        <v>175.4069569985617</v>
+        <v>20.42792494085745</v>
       </c>
       <c r="H49">
-        <v>12.28734633501201</v>
+        <v>14.69379713323727</v>
       </c>
       <c r="Q49">
-        <v>8.115887062696765E-26</v>
+        <v>3.215821556726228E-27</v>
       </c>
       <c r="R49">
-        <v>2.974052779788827E-13</v>
+        <v>1.421198429075544E-13</v>
       </c>
       <c r="S49" t="s">
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.0002765000000408691</v>
+        <v>0.0002762000000018361</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2343,37 +2343,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5.787062191901235</v>
+        <v>9.999999999999813</v>
       </c>
       <c r="G50">
-        <v>160.4831880924475</v>
+        <v>3.148248767607599</v>
       </c>
       <c r="H50">
-        <v>7.848611674738122</v>
+        <v>13.69887920616245</v>
       </c>
       <c r="Q50">
-        <v>2.060892469961848E-25</v>
+        <v>1.535062630712628E-28</v>
       </c>
       <c r="R50">
-        <v>5.453270498927019E-13</v>
+        <v>1.535505511142189E-13</v>
       </c>
       <c r="S50" t="s">
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.0002564999999776774</v>
+        <v>0.0002803000000000111</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2381,37 +2381,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>18.54340051351849</v>
+        <v>10.00000000000017</v>
       </c>
       <c r="G51">
-        <v>44.47112975312581</v>
+        <v>54.1736020540634</v>
       </c>
       <c r="H51">
-        <v>14.26335135059399</v>
+        <v>5.964741983542111</v>
       </c>
       <c r="Q51">
-        <v>2.609067853744552E-27</v>
+        <v>1.868972416546807E-26</v>
       </c>
       <c r="R51">
-        <v>6.210599853979263E-13</v>
+        <v>2.005107629002527E-13</v>
       </c>
       <c r="S51" t="s">
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.0004880000000184737</v>
+        <v>0.0004174000000034539</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2419,37 +2419,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>27.25707404921224</v>
+        <v>10.00000000000033</v>
       </c>
       <c r="G52">
-        <v>41.05495880087637</v>
+        <v>89.02829619685326</v>
       </c>
       <c r="H52">
-        <v>7.554739237573333</v>
+        <v>5.736997253392216</v>
       </c>
       <c r="Q52">
-        <v>2.626572953919345E-27</v>
+        <v>4.888905169586264E-27</v>
       </c>
       <c r="R52">
-        <v>5.854881879858025E-13</v>
+        <v>3.698049378707825E-13</v>
       </c>
       <c r="S52" t="s">
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.0002658999999880507</v>
+        <v>0.0005021999999996751</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2457,37 +2457,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>35.40791369765991</v>
+        <v>10.00000000000042</v>
       </c>
       <c r="G53">
-        <v>8.048192796530859</v>
+        <v>121.6316547906451</v>
       </c>
       <c r="H53">
-        <v>8.433036725425499</v>
+        <v>3.53654618643583</v>
       </c>
       <c r="Q53">
-        <v>3.770329268416982E-29</v>
+        <v>8.632909460432691E-27</v>
       </c>
       <c r="R53">
-        <v>1.430799136941693E-13</v>
+        <v>5.48463104331371E-13</v>
       </c>
       <c r="S53" t="s">
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.0002612000000112857</v>
+        <v>0.0004059999999981301</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2495,37 +2495,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>42.03996533194095</v>
+        <v>10.00000000000036</v>
       </c>
       <c r="G54">
-        <v>4.701236682578512</v>
+        <v>148.1598613277615</v>
       </c>
       <c r="H54">
-        <v>7.107706399309504</v>
+        <v>3.313415778838634</v>
       </c>
       <c r="Q54">
-        <v>3.1778489548086E-29</v>
+        <v>2.391398665801836E-26</v>
       </c>
       <c r="R54">
-        <v>1.280442519331013E-12</v>
+        <v>2.575324115987141E-13</v>
       </c>
       <c r="S54" t="s">
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.0004950000000008004</v>
+        <v>0.0002769999999969741</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2533,37 +2533,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>43.0998083244526</v>
+        <v>9.999999999998703</v>
       </c>
       <c r="G55">
-        <v>101.0097972476964</v>
+        <v>152.399233297825</v>
       </c>
       <c r="H55">
-        <v>9.548754024056063</v>
+        <v>9.733986483178791</v>
       </c>
       <c r="Q55">
-        <v>3.702194032352018E-27</v>
+        <v>4.847435625838267E-26</v>
       </c>
       <c r="R55">
-        <v>7.602766714779318E-13</v>
+        <v>6.544821431457404E-13</v>
       </c>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.0002650000000130603</v>
+        <v>0.0002656000000058611</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2571,37 +2571,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>23.90823352133285</v>
+        <v>10.00000000000178</v>
       </c>
       <c r="G56">
-        <v>65.38310945370891</v>
+        <v>75.63293408534633</v>
       </c>
       <c r="H56">
-        <v>6.848766877613869</v>
+        <v>7.358873963582866</v>
       </c>
       <c r="Q56">
-        <v>1.37991358131727E-26</v>
+        <v>1.82943580125587E-25</v>
       </c>
       <c r="R56">
-        <v>5.361308984866341E-13</v>
+        <v>1.097166142017981E-12</v>
       </c>
       <c r="S56" t="s">
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.000266799999963041</v>
+        <v>0.0002788999999978614</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2609,37 +2609,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>9.189872900231338</v>
+        <v>10.00000000000104</v>
       </c>
       <c r="G57">
-        <v>174.8980655981641</v>
+        <v>16.75949160093586</v>
       </c>
       <c r="H57">
-        <v>9.83859980463323</v>
+        <v>14.65987103987704</v>
       </c>
       <c r="Q57">
-        <v>1.195640533806972E-24</v>
+        <v>1.361358175131989E-27</v>
       </c>
       <c r="R57">
-        <v>1.291355131853633E-12</v>
+        <v>2.790081993920807E-13</v>
       </c>
       <c r="S57" t="s">
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.0003993999999920561</v>
+        <v>0.00034270000000447</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2647,37 +2647,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>49.28863327441127</v>
+        <v>10.00000000000055</v>
       </c>
       <c r="G58">
-        <v>60.01420788263354</v>
+        <v>177.1545330976627</v>
       </c>
       <c r="H58">
-        <v>11.73701624669018</v>
+        <v>7.000947192176159</v>
       </c>
       <c r="Q58">
-        <v>1.110550486012222E-26</v>
+        <v>4.25641910718295E-26</v>
       </c>
       <c r="R58">
-        <v>5.138266806100493E-13</v>
+        <v>2.327592391244817E-13</v>
       </c>
       <c r="S58" t="s">
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.0002672999999617787</v>
+        <v>0.000267100000002074</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2685,37 +2685,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>8.930733930596972</v>
+        <v>9.999999999999948</v>
       </c>
       <c r="G59">
-        <v>41.48587791930818</v>
+        <v>15.72293572239173</v>
       </c>
       <c r="H59">
-        <v>9.110610706388595</v>
+        <v>5.765725194620716</v>
       </c>
       <c r="Q59">
-        <v>7.952970973258708E-27</v>
+        <v>3.457930557605289E-28</v>
       </c>
       <c r="R59">
-        <v>3.87065566438515E-13</v>
+        <v>2.312762700492342E-14</v>
       </c>
       <c r="S59" t="s">
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.0002613999999994121</v>
+        <v>0.0002728999999987991</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2723,37 +2723,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>21.42975123601978</v>
+        <v>9.999999999998634</v>
       </c>
       <c r="G60">
-        <v>81.21706486080338</v>
+        <v>65.71900494407697</v>
       </c>
       <c r="H60">
-        <v>9.96060348767705</v>
+        <v>8.414470990719243</v>
       </c>
       <c r="Q60">
-        <v>2.367228162098948E-27</v>
+        <v>3.482215517732397E-26</v>
       </c>
       <c r="R60">
-        <v>3.883520195767511E-13</v>
+        <v>6.671013282295367E-13</v>
       </c>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.0002843999999981861</v>
+        <v>0.0002791999999942618</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2761,37 +2761,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>46.58158020084837</v>
+        <v>9.999999999999352</v>
       </c>
       <c r="G61">
-        <v>28.41670449626642</v>
+        <v>166.3263208033976</v>
       </c>
       <c r="H61">
-        <v>13.66915076815586</v>
+        <v>4.894446966416796</v>
       </c>
       <c r="Q61">
-        <v>1.535062630712628E-28</v>
+        <v>7.03822849816322E-26</v>
       </c>
       <c r="R61">
-        <v>5.113525741781861E-13</v>
+        <v>4.959238957500476E-13</v>
       </c>
       <c r="S61" t="s">
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.000261500000021897</v>
+        <v>0.0002716999999989866</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2799,37 +2799,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>18.53929985209767</v>
+        <v>9.999999999999613</v>
       </c>
       <c r="G62">
-        <v>33.65024694153502</v>
+        <v>54.1571994083926</v>
       </c>
       <c r="H62">
-        <v>8.231826769682574</v>
+        <v>5.243349796102094</v>
       </c>
       <c r="Q62">
-        <v>1.540987433848712E-27</v>
+        <v>6.570068059450051E-27</v>
       </c>
       <c r="R62">
-        <v>2.060964103553873E-13</v>
+        <v>3.059866093483871E-13</v>
       </c>
       <c r="S62" t="s">
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.0002809000000070228</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2837,37 +2837,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>42.10112641609729</v>
+        <v>10.00000000000107</v>
       </c>
       <c r="G63">
-        <v>32.64295184949245</v>
+        <v>148.4045056643916</v>
       </c>
       <c r="H63">
-        <v>13.7732676820712</v>
+        <v>5.176196789967603</v>
       </c>
       <c r="Q63">
-        <v>1.349239259626363E-27</v>
+        <v>8.307718561031727E-26</v>
       </c>
       <c r="R63">
-        <v>2.258194189948996E-13</v>
+        <v>7.841019369700755E-13</v>
       </c>
       <c r="S63" t="s">
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.0002766000000065105</v>
+        <v>0.0002848000000028605</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2875,37 +2875,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>6.518961969046368</v>
+        <v>9.999999999999854</v>
       </c>
       <c r="G64">
-        <v>88.03935143380821</v>
+        <v>6.075847876177175</v>
       </c>
       <c r="H64">
-        <v>13.46085097281375</v>
+        <v>8.869290095587452</v>
       </c>
       <c r="Q64">
-        <v>1.128692165887603E-25</v>
+        <v>1.004523440799667E-28</v>
       </c>
       <c r="R64">
-        <v>1.49786651763733E-12</v>
+        <v>1.552661160618006E-13</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.0002580999999963751</v>
+        <v>0.0002937000000002854</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2913,37 +2913,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>29.92734601252745</v>
+        <v>9.99999999999811</v>
       </c>
       <c r="G65">
-        <v>71.32462086696303</v>
+        <v>99.70938405010627</v>
       </c>
       <c r="H65">
-        <v>5.481267725801017</v>
+        <v>7.754974724462518</v>
       </c>
       <c r="Q65">
-        <v>1.207851912060726E-27</v>
+        <v>1.153168672207007E-25</v>
       </c>
       <c r="R65">
-        <v>2.480021794541831E-13</v>
+        <v>9.394943184007213E-13</v>
       </c>
       <c r="S65" t="s">
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.000262200000008761</v>
+        <v>0.0003411999999940463</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2951,37 +2951,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>22.05943364451979</v>
+        <v>10.0000000000002</v>
       </c>
       <c r="G66">
-        <v>102.0776700923222</v>
+        <v>68.23773457808144</v>
       </c>
       <c r="H66">
-        <v>10.95592512657109</v>
+        <v>9.805178006155629</v>
       </c>
       <c r="Q66">
-        <v>9.355802770343283E-28</v>
+        <v>8.944634898160739E-27</v>
       </c>
       <c r="R66">
-        <v>2.475735695792292E-13</v>
+        <v>1.706342847879765E-13</v>
       </c>
       <c r="S66" t="s">
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.0002815999999938867</v>
+        <v>0.0002848000000028605</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2989,37 +2989,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14.83902725662404</v>
+        <v>10.00000000000002</v>
       </c>
       <c r="G67">
-        <v>5.652489510463313</v>
+        <v>39.35610902649969</v>
       </c>
       <c r="H67">
-        <v>7.871252773398492</v>
+        <v>3.376832634030829</v>
       </c>
       <c r="Q67">
-        <v>2.652695949564805E-28</v>
+        <v>6.064843937482174E-28</v>
       </c>
       <c r="R67">
-        <v>5.187811426624719E-13</v>
+        <v>1.699224475473736E-13</v>
       </c>
       <c r="S67" t="s">
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.0002699000000347951</v>
+        <v>0.0002846000000005233</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3027,37 +3027,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>11.94294101590629</v>
+        <v>9.999999999999966</v>
       </c>
       <c r="G68">
-        <v>24.06592092600772</v>
+        <v>27.7717640636246</v>
       </c>
       <c r="H68">
-        <v>8.626854661769627</v>
+        <v>4.604394728401576</v>
       </c>
       <c r="Q68">
-        <v>1.619625730018552E-27</v>
+        <v>1.116825391151802E-27</v>
       </c>
       <c r="R68">
-        <v>4.786546075421504E-13</v>
+        <v>5.579240170046039E-13</v>
       </c>
       <c r="S68" t="s">
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.0002650999999787018</v>
+        <v>0.0002937999999943486</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3065,37 +3065,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>29.56331434707095</v>
+        <v>10.000000000002</v>
       </c>
       <c r="G69">
-        <v>154.5941899064498</v>
+        <v>98.25325738829527</v>
       </c>
       <c r="H69">
-        <v>11.85892586566576</v>
+        <v>13.30627932709945</v>
       </c>
       <c r="Q69">
-        <v>3.880530606748141E-26</v>
+        <v>1.823916981789225E-26</v>
       </c>
       <c r="R69">
-        <v>3.106202491878904E-13</v>
+        <v>9.454870291600578E-13</v>
       </c>
       <c r="S69" t="s">
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.0002737000000365697</v>
+        <v>0.0002719000000013239</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3103,37 +3103,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>16.67171614767943</v>
+        <v>9.999999999999963</v>
       </c>
       <c r="G70">
-        <v>7.804989209141284</v>
+        <v>46.68686459071557</v>
       </c>
       <c r="H70">
-        <v>10.82030342126647</v>
+        <v>3.52033261394309</v>
       </c>
       <c r="Q70">
-        <v>2.418396916456036E-28</v>
+        <v>5.782877170051276E-27</v>
       </c>
       <c r="R70">
-        <v>1.698397827295641E-13</v>
+        <v>3.165305655051131E-13</v>
       </c>
       <c r="S70" t="s">
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.000281200000017634</v>
+        <v>0.000282699999999636</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3141,37 +3141,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>18.33121227526131</v>
+        <v>10.00000000000172</v>
       </c>
       <c r="G71">
-        <v>145.6321888211954</v>
+        <v>53.32484910104314</v>
       </c>
       <c r="H71">
-        <v>8.502525252234554</v>
+        <v>12.70881258808214</v>
       </c>
       <c r="Q71">
-        <v>5.186060977784214E-26</v>
+        <v>9.540838411921683E-26</v>
       </c>
       <c r="R71">
-        <v>3.783636624520203E-13</v>
+        <v>8.509264150703168E-13</v>
       </c>
       <c r="S71" t="s">
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.0003123999999843363</v>
+        <v>0.0002750999999960868</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3179,37 +3179,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>46.73662423785057</v>
+        <v>9.99999999999466</v>
       </c>
       <c r="G72">
-        <v>157.0367329936543</v>
+        <v>166.9464969514153</v>
       </c>
       <c r="H72">
-        <v>10.84631272595246</v>
+        <v>13.46911553290183</v>
       </c>
       <c r="Q72">
-        <v>9.169979399257017E-28</v>
+        <v>4.240077705276594E-24</v>
       </c>
       <c r="R72">
-        <v>9.111989534212093E-13</v>
+        <v>2.583303815597561E-12</v>
       </c>
       <c r="S72" t="s">
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.0002665000000092732</v>
+        <v>0.0002862999999990734</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3217,37 +3217,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>13.35088736682971</v>
+        <v>10.00000000000054</v>
       </c>
       <c r="G73">
-        <v>69.58787454756924</v>
+        <v>33.4035494673363</v>
       </c>
       <c r="H73">
-        <v>13.31896198636656</v>
+        <v>7.6391916365059</v>
       </c>
       <c r="Q73">
-        <v>1.082268976860593E-25</v>
+        <v>1.695328555543696E-26</v>
       </c>
       <c r="R73">
-        <v>1.616241586956512E-12</v>
+        <v>4.565422620515351E-13</v>
       </c>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.0002700000000004366</v>
+        <v>0.0002895000000080472</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3255,37 +3255,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>9.80321910150041</v>
+        <v>10.00000000000109</v>
       </c>
       <c r="G74">
-        <v>123.1816739901668</v>
+        <v>19.21287640595777</v>
       </c>
       <c r="H74">
-        <v>10.34962617392697</v>
+        <v>11.21211159934389</v>
       </c>
       <c r="Q74">
-        <v>2.068472380118101E-24</v>
+        <v>3.09759480323801E-27</v>
       </c>
       <c r="R74">
-        <v>5.907626157576786E-12</v>
+        <v>3.082699946978479E-13</v>
       </c>
       <c r="S74" t="s">
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.0003439999999841348</v>
+        <v>0.0002747000000056232</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3293,37 +3293,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>33.92104621036563</v>
+        <v>10.00000000000224</v>
       </c>
       <c r="G75">
-        <v>96.95176757441283</v>
+        <v>115.6841848414967</v>
       </c>
       <c r="H75">
-        <v>10.11897982458324</v>
+        <v>9.463451171630382</v>
       </c>
       <c r="Q75">
-        <v>1.967007710256486E-26</v>
+        <v>1.2414235382284E-25</v>
       </c>
       <c r="R75">
-        <v>1.20502896918918E-12</v>
+        <v>1.231896725464467E-12</v>
       </c>
       <c r="S75" t="s">
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.0002639999999587417</v>
+        <v>0.0002813999999915495</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3331,37 +3331,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>14.09910320440293</v>
+        <v>9.999999999999751</v>
       </c>
       <c r="G76">
-        <v>141.2185687398957</v>
+        <v>36.39641281744406</v>
       </c>
       <c r="H76">
-        <v>13.60537239242179</v>
+        <v>12.41457124932653</v>
       </c>
       <c r="Q76">
-        <v>9.071151607517317E-24</v>
+        <v>5.340402099479197E-27</v>
       </c>
       <c r="R76">
-        <v>1.456299380971838E-11</v>
+        <v>9.7144470433475E-14</v>
       </c>
       <c r="S76" t="s">
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.0002620000000206346</v>
+        <v>0.0002969000000092592</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3369,37 +3369,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>30.60230990536648</v>
+        <v>9.999999999999449</v>
       </c>
       <c r="G77">
-        <v>11.87356096609825</v>
+        <v>102.4092396214583</v>
       </c>
       <c r="H77">
-        <v>13.88110669900455</v>
+        <v>3.791570731072865</v>
       </c>
       <c r="Q77">
-        <v>1.605083031411801E-28</v>
+        <v>1.954228987128887E-26</v>
       </c>
       <c r="R77">
-        <v>4.145563950844619E-13</v>
+        <v>5.335130788368507E-13</v>
       </c>
       <c r="S77" t="s">
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.0002734000000259584</v>
+        <v>0.0002853000000015982</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3407,37 +3407,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>18.98734098903428</v>
+        <v>10.00000000000018</v>
       </c>
       <c r="G78">
-        <v>147.4176997293967</v>
+        <v>55.94936395614459</v>
       </c>
       <c r="H78">
-        <v>8.34752624571475</v>
+        <v>12.82784664862682</v>
       </c>
       <c r="Q78">
-        <v>6.103395554251739E-26</v>
+        <v>5.492561816383167E-26</v>
       </c>
       <c r="R78">
-        <v>3.927930490717958E-13</v>
+        <v>1.683498422791019E-13</v>
       </c>
       <c r="S78" t="s">
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.0002772999999933745</v>
+        <v>0.000289199999997436</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3445,37 +3445,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>46.35990643096262</v>
+        <v>10.00000000000239</v>
       </c>
       <c r="G79">
-        <v>115.595207986288</v>
+        <v>165.439625723851</v>
       </c>
       <c r="H79">
-        <v>12.53712229729055</v>
+        <v>10.70634719908966</v>
       </c>
       <c r="Q79">
-        <v>5.342556573346864E-27</v>
+        <v>5.313090176518948E-25</v>
       </c>
       <c r="R79">
-        <v>4.110704974124183E-13</v>
+        <v>1.234089496908604E-12</v>
       </c>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.0002865000000156215</v>
+        <v>0.0003485999999952583</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3483,37 +3483,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>7.168155237510325</v>
+        <v>10.00000000000132</v>
       </c>
       <c r="G80">
-        <v>122.5733424961892</v>
+        <v>8.672620950044417</v>
       </c>
       <c r="H80">
-        <v>12.98696067903744</v>
+        <v>11.17155616641103</v>
       </c>
       <c r="Q80">
-        <v>3.343914115830746E-27</v>
+        <v>3.670415542803932E-27</v>
       </c>
       <c r="R80">
-        <v>1.97455047318362E-13</v>
+        <v>6.159724350239932E-13</v>
       </c>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.0002782000000252083</v>
+        <v>0.0002631999999920254</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3521,37 +3521,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>27.53006568532228</v>
+        <v>10.00000000000137</v>
       </c>
       <c r="G81">
-        <v>84.25213667065313</v>
+        <v>90.12026274126777</v>
       </c>
       <c r="H81">
-        <v>10.00782525642494</v>
+        <v>8.616809111379194</v>
       </c>
       <c r="Q81">
-        <v>3.511523095063502E-26</v>
+        <v>1.267770523412876E-25</v>
       </c>
       <c r="R81">
-        <v>1.152820991132662E-12</v>
+        <v>7.761493000084124E-13</v>
       </c>
       <c r="S81" t="s">
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.0002673000000186221</v>
+        <v>0.0002915000000029977</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3559,37 +3559,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>28.48620724250862</v>
+        <v>10.00000000000048</v>
       </c>
       <c r="G82">
-        <v>125.8931460626442</v>
+        <v>93.94482897004339</v>
       </c>
       <c r="H82">
-        <v>7.698689710728983</v>
+        <v>11.39287640417677</v>
       </c>
       <c r="Q82">
-        <v>6.811907751095654E-27</v>
+        <v>3.974223289068303E-26</v>
       </c>
       <c r="R82">
-        <v>4.529643352978591E-13</v>
+        <v>3.177385240671994E-13</v>
       </c>
       <c r="S82" t="s">
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.0002633999999943626</v>
+        <v>0.0002665000000092732</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3597,37 +3597,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>20.99386030123923</v>
+        <v>9.999999999999421</v>
       </c>
       <c r="G83">
-        <v>61.35279780407109</v>
+        <v>63.97544120494299</v>
       </c>
       <c r="H83">
-        <v>14.33106442281899</v>
+        <v>7.09018652027087</v>
       </c>
       <c r="Q83">
-        <v>1.16882900413261E-26</v>
+        <v>1.955279293139374E-26</v>
       </c>
       <c r="R83">
-        <v>9.389324260686482E-13</v>
+        <v>3.714904778433775E-13</v>
       </c>
       <c r="S83" t="s">
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.0002676000000292333</v>
+        <v>0.0002867000000037478</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3635,37 +3635,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17.38515514106287</v>
+        <v>9.999999999999206</v>
       </c>
       <c r="G84">
-        <v>115.0615369665493</v>
+        <v>49.54062056423945</v>
       </c>
       <c r="H84">
-        <v>11.23899212335624</v>
+        <v>10.6707691311023</v>
       </c>
       <c r="Q84">
-        <v>6.583641244816352E-26</v>
+        <v>3.560934606672274E-26</v>
       </c>
       <c r="R84">
-        <v>8.178496746906688E-13</v>
+        <v>3.838090445112049E-13</v>
       </c>
       <c r="S84" t="s">
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.0002662999999643034</v>
+        <v>0.0002883000000082347</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3673,37 +3673,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>16.56690921972862</v>
+        <v>10.00000000000094</v>
       </c>
       <c r="G85">
-        <v>123.0817649527889</v>
+        <v>46.26763687892561</v>
       </c>
       <c r="H85">
-        <v>11.63641757568831</v>
+        <v>11.20545099685453</v>
       </c>
       <c r="Q85">
-        <v>2.032066088329188E-26</v>
+        <v>4.352144936380414E-26</v>
       </c>
       <c r="R85">
-        <v>9.842525518218437E-13</v>
+        <v>5.386210740193428E-13</v>
       </c>
       <c r="S85" t="s">
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.0003870999999548985</v>
+        <v>0.000286000000002673</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3711,37 +3711,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>7.071844713417455</v>
+        <v>9.999999999999913</v>
       </c>
       <c r="G86">
-        <v>66.64361690081051</v>
+        <v>8.287378853667384</v>
       </c>
       <c r="H86">
-        <v>7.423182674914567</v>
+        <v>7.442907793387451</v>
       </c>
       <c r="Q86">
-        <v>9.223639264023596E-27</v>
+        <v>1.022567159441377E-27</v>
       </c>
       <c r="R86">
-        <v>3.84954782096647E-13</v>
+        <v>1.019177367446913E-13</v>
       </c>
       <c r="S86" t="s">
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.0002703999999766893</v>
+        <v>0.0002695999999957621</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3749,37 +3749,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>32.91682165489564</v>
+        <v>10.00000000000077</v>
       </c>
       <c r="G87">
-        <v>91.61155235616755</v>
+        <v>111.6672866195871</v>
       </c>
       <c r="H87">
-        <v>7.982448417587531</v>
+        <v>9.107436823745472</v>
       </c>
       <c r="Q87">
-        <v>1.558250155713393E-26</v>
+        <v>1.552483571751966E-26</v>
       </c>
       <c r="R87">
-        <v>2.636476649789699E-13</v>
+        <v>3.174820032281323E-13</v>
       </c>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.0002683000000160973</v>
+        <v>0.0002785999999872502</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3787,37 +3787,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>14.11731291330028</v>
+        <v>9.999999999999714</v>
       </c>
       <c r="G88">
-        <v>37.27675873098266</v>
+        <v>36.46925165320175</v>
       </c>
       <c r="H88">
-        <v>6.526377433000872</v>
+        <v>5.485117248731454</v>
       </c>
       <c r="Q88">
-        <v>8.163032175356224E-27</v>
+        <v>3.510984476596586E-27</v>
       </c>
       <c r="R88">
-        <v>8.201044097514299E-13</v>
+        <v>1.8591609765593E-13</v>
       </c>
       <c r="S88" t="s">
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.0003886999999735963</v>
+        <v>0.0002829000000019732</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3825,37 +3825,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>34.5318883354846</v>
+        <v>9.999999999998005</v>
       </c>
       <c r="G89">
-        <v>171.8822478443794</v>
+        <v>118.1275533419316</v>
       </c>
       <c r="H89">
-        <v>14.70876034993708</v>
+        <v>14.45881652295489</v>
       </c>
       <c r="Q89">
-        <v>4.998648682220544E-27</v>
+        <v>4.715473162013278E-26</v>
       </c>
       <c r="R89">
-        <v>2.975633745316257E-13</v>
+        <v>1.01448758988645E-12</v>
       </c>
       <c r="S89" t="s">
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.0002638999999931002</v>
+        <v>0.0002755999999948244</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3863,37 +3863,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>34.13979722088182</v>
+        <v>10.00000000000057</v>
       </c>
       <c r="G90">
-        <v>91.28694387835722</v>
+        <v>116.5591888835424</v>
       </c>
       <c r="H90">
-        <v>10.28341380152049</v>
+        <v>9.085796258557528</v>
       </c>
       <c r="Q90">
-        <v>1.302002420077767E-26</v>
+        <v>1.756008975389991E-26</v>
       </c>
       <c r="R90">
-        <v>7.402649308927233E-13</v>
+        <v>2.963099963632284E-13</v>
       </c>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.0002687000000491935</v>
+        <v>0.0002723000000059983</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3901,37 +3901,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>27.48624442109876</v>
+        <v>10.00000000000018</v>
       </c>
       <c r="G91">
-        <v>46.06868417610668</v>
+        <v>89.9449776843831</v>
       </c>
       <c r="H91">
-        <v>7.581006309885273</v>
+        <v>6.07124561174014</v>
       </c>
       <c r="Q91">
-        <v>2.690399242248976E-28</v>
+        <v>2.230015107651916E-27</v>
       </c>
       <c r="R91">
-        <v>3.804839986785126E-13</v>
+        <v>2.461589795621713E-13</v>
       </c>
       <c r="S91" t="s">
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.000285200000007535</v>
+        <v>0.0002836000000030481</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3939,37 +3939,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>11.88743894447662</v>
+        <v>10.00000000000013</v>
       </c>
       <c r="G92">
-        <v>28.38341898169296</v>
+        <v>27.54975577790419</v>
       </c>
       <c r="H92">
-        <v>14.85491114183181</v>
+        <v>4.892227932113391</v>
       </c>
       <c r="Q92">
-        <v>3.433692726594037E-28</v>
+        <v>1.787944000930025E-27</v>
       </c>
       <c r="R92">
-        <v>5.81020561325066E-14</v>
+        <v>3.344986123424153E-13</v>
       </c>
       <c r="S92" t="s">
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.000266199999998662</v>
+        <v>0.0002790000000061355</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3977,37 +3977,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>14.0451618253091</v>
+        <v>9.999999999999737</v>
       </c>
       <c r="G93">
-        <v>59.22368396859723</v>
+        <v>36.180647301235</v>
       </c>
       <c r="H93">
-        <v>7.964996887009939</v>
+        <v>6.94824559790591</v>
       </c>
       <c r="Q93">
-        <v>2.60306225783843E-26</v>
+        <v>3.184581685645059E-27</v>
       </c>
       <c r="R93">
-        <v>3.902608151551218E-13</v>
+        <v>1.500601195151286E-13</v>
       </c>
       <c r="S93" t="s">
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.000288500000010572</v>
+        <v>0.0002966000000128588</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4015,37 +4015,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>44.86462247469274</v>
+        <v>9.999999999995833</v>
       </c>
       <c r="G94">
-        <v>141.9446820246542</v>
+        <v>159.4584898987746</v>
       </c>
       <c r="H94">
-        <v>9.247281314747866</v>
+        <v>12.46297880163833</v>
       </c>
       <c r="Q94">
-        <v>8.243555636160274E-28</v>
+        <v>8.533507646948524E-25</v>
       </c>
       <c r="R94">
-        <v>1.288372211483951E-12</v>
+        <v>2.021722621652478E-12</v>
       </c>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.0003310000000169566</v>
+        <v>0.0002933000000098218</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4053,37 +4053,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>32.28594519993979</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="G95">
-        <v>118.352082351196</v>
+        <v>109.1437807997647</v>
       </c>
       <c r="H95">
-        <v>8.072410093434383</v>
+        <v>10.89013882341427</v>
       </c>
       <c r="Q95">
-        <v>2.70925088859106E-27</v>
+        <v>7.039762719202577E-26</v>
       </c>
       <c r="R95">
-        <v>7.598396592508014E-13</v>
+        <v>1.393406490673476E-13</v>
       </c>
       <c r="S95" t="s">
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.0002691000000254462</v>
+        <v>0.0002698000000123102</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4091,37 +4091,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>37.37236038098971</v>
+        <v>9.999999999996733</v>
       </c>
       <c r="G96">
-        <v>109.2998116119535</v>
+        <v>129.4894415239112</v>
       </c>
       <c r="H96">
-        <v>11.89861614579183</v>
+        <v>10.2866541074594</v>
       </c>
       <c r="Q96">
-        <v>3.541793452904221E-26</v>
+        <v>1.841479349117353E-25</v>
       </c>
       <c r="R96">
-        <v>1.51172132999483E-12</v>
+        <v>1.664472897263655E-12</v>
       </c>
       <c r="S96" t="s">
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.0002656999999999243</v>
+        <v>0.0002828000000079101</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4129,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>15.29615694005997</v>
+        <v>9.99999999999975</v>
       </c>
       <c r="G97">
-        <v>34.32384335235172</v>
+        <v>41.1846277602489</v>
       </c>
       <c r="H97">
-        <v>13.86359670982334</v>
+        <v>5.288256223489038</v>
       </c>
       <c r="Q97">
-        <v>8.035918217163881E-27</v>
+        <v>2.198505927337288E-26</v>
       </c>
       <c r="R97">
-        <v>2.106943627908126E-13</v>
+        <v>7.569592034023831E-13</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0002810999999951491</v>
+        <v>0.0002760999999935621</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4167,37 +4167,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>14.66091000577342</v>
+        <v>10.00000000000039</v>
       </c>
       <c r="G98">
-        <v>163.7104268414927</v>
+        <v>38.64364002303178</v>
       </c>
       <c r="H98">
-        <v>13.17235373165312</v>
+        <v>13.91402845609938</v>
       </c>
       <c r="Q98">
-        <v>1.773787180909465E-24</v>
+        <v>1.624473296220802E-27</v>
       </c>
       <c r="R98">
-        <v>5.533522326560623E-12</v>
+        <v>2.450419172668372E-13</v>
       </c>
       <c r="S98" t="s">
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.0002592999999819767</v>
+        <v>0.0002891000000033728</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4205,37 +4205,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>42.66248559190268</v>
+        <v>9.999999999997353</v>
       </c>
       <c r="G99">
-        <v>174.642453349261</v>
+        <v>150.6499423676145</v>
       </c>
       <c r="H99">
-        <v>9.471537852617418</v>
+        <v>14.64283022327926</v>
       </c>
       <c r="Q99">
-        <v>1.739737648140979E-28</v>
+        <v>2.713135038488371E-25</v>
       </c>
       <c r="R99">
-        <v>6.82608838609249E-13</v>
+        <v>1.250308289666257E-12</v>
       </c>
       <c r="S99" t="s">
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.0002676000000292333</v>
+        <v>0.0002717999999930498</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4243,37 +4243,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>37.9520261630953</v>
+        <v>9.99999999998907</v>
       </c>
       <c r="G100">
-        <v>102.0940227811823</v>
+        <v>131.8081046523916</v>
       </c>
       <c r="H100">
-        <v>8.012238900499577</v>
+        <v>9.806268185396087</v>
       </c>
       <c r="Q100">
-        <v>7.528270312094881E-27</v>
+        <v>1.957666264439456E-24</v>
       </c>
       <c r="R100">
-        <v>8.204983034503814E-13</v>
+        <v>5.569670786948019E-12</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.0002771999999708896</v>
+        <v>0.00035909999999717</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4281,37 +4281,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>35.25253513837146</v>
+        <v>9.999999999995245</v>
       </c>
       <c r="G101">
-        <v>87.85411186331852</v>
+        <v>121.0101405535387</v>
       </c>
       <c r="H101">
-        <v>13.25495174035211</v>
+        <v>8.856940790880941</v>
       </c>
       <c r="Q101">
-        <v>9.337274295081349E-26</v>
+        <v>4.333616503198047E-25</v>
       </c>
       <c r="R101">
-        <v>2.299547972242296E-12</v>
+        <v>2.600262553886544E-12</v>
       </c>
       <c r="S101" t="s">
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.0002693000000135726</v>
+        <v>0.0002927999999968733</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.0003010000000358559</v>
+        <v>0.0002880000000011762</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>0.0002741999999216205</v>
+        <v>0.0002912999999971078</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>0.000367999999980384</v>
+        <v>0.0002692000000017458</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0.001025799999979427</v>
+        <v>0.0002706999999979587</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>0.0002986000000646527</v>
+        <v>0.000265199999997634</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="L7">
-        <v>0.0002829999999676147</v>
+        <v>0.0002814000000022077</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>0.0002262000000428088</v>
+        <v>0.0002683000000018865</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0002616000000443819</v>
+        <v>0.0002224999999995703</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="L10">
-        <v>0.0002244999999447828</v>
+        <v>0.0002224999999995703</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="L11">
-        <v>0.0002088999999614316</v>
+        <v>0.0002247999999980266</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>П0_ист</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>V0_расч</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>Ка</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +459,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -468,31 +480,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6.123233995737036E-16</v>
       </c>
       <c r="F2">
-        <v>9.999999999997414</v>
+        <v>10.00000000000044</v>
       </c>
       <c r="G2">
-        <v>98.78643070691379</v>
+        <v>11.44634962546341</v>
       </c>
       <c r="H2">
-        <v>11.58227239646509</v>
+        <v>-1.769212852564031</v>
       </c>
       <c r="I2">
-        <v>1.57383171468821E-25</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>1.399170723055266E-12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>3.918382019510714E-27</v>
       </c>
       <c r="L2">
-        <v>0.0002880000000011762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.156748969569024E-13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.0003328000002511544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -506,31 +524,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.123233995736967E-16</v>
       </c>
       <c r="F3">
-        <v>10.00000000000025</v>
+        <v>10.00000000000033</v>
       </c>
       <c r="G3">
-        <v>75.06396084646718</v>
+        <v>11.25049508124729</v>
       </c>
       <c r="H3">
-        <v>11.64389392130598</v>
+        <v>3.001104143055858</v>
       </c>
       <c r="I3">
-        <v>3.491257575245762E-27</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>1.573624825501344E-13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>3.81254349076158E-27</v>
       </c>
       <c r="L3">
-        <v>0.0002912999999971078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.14676369353826E-13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.0003004000000146334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -544,31 +568,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.123233995736823E-16</v>
       </c>
       <c r="F4">
-        <v>9.99999999999994</v>
+        <v>10.00000000000009</v>
       </c>
       <c r="G4">
-        <v>78.47908238556967</v>
+        <v>3.244401957305168</v>
       </c>
       <c r="H4">
-        <v>3.311114781934677</v>
+        <v>0.6613146290390631</v>
       </c>
       <c r="I4">
-        <v>4.9935991340932E-27</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>2.490155076034537E-13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>9.243366165374418E-28</v>
       </c>
       <c r="L4">
-        <v>0.0002692000000017458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.224040598703054E-13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>0.000237100000049395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -582,31 +612,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.123233995736602E-16</v>
       </c>
       <c r="F5">
-        <v>9.999999999998241</v>
+        <v>9.999999999999732</v>
       </c>
       <c r="G5">
-        <v>99.14362246342118</v>
+        <v>11.35167287813431</v>
       </c>
       <c r="H5">
-        <v>11.49777387141474</v>
+        <v>-1.827108881831054</v>
       </c>
       <c r="I5">
-        <v>2.749561431291649E-26</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>9.007960950547261E-13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>1.485762209162658E-27</v>
       </c>
       <c r="L5">
-        <v>0.0002706999999979587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.533717283904055E-13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>0.0002488000000084867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -620,31 +656,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.123233995737624E-16</v>
       </c>
       <c r="F6">
-        <v>9.999999999999094</v>
+        <v>10.0000000000014</v>
       </c>
       <c r="G6">
-        <v>174.0653710224625</v>
+        <v>0.9891455622647491</v>
       </c>
       <c r="H6">
-        <v>9.566786990107806</v>
+        <v>-9.515513878440718</v>
       </c>
       <c r="I6">
-        <v>5.717638151565102E-26</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>3.938903713713462E-13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>2.3728932100462E-25</v>
       </c>
       <c r="L6">
-        <v>0.000265199999997634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.016890486098248E-12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>0.0002167000002373243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -658,31 +700,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6.123233995736152E-16</v>
       </c>
       <c r="F7">
-        <v>9.99999999999941</v>
+        <v>9.999999999998996</v>
       </c>
       <c r="G7">
-        <v>39.95877079614989</v>
+        <v>8.637298410841892</v>
       </c>
       <c r="H7">
-        <v>13.44878767412958</v>
+        <v>10.30858700626852</v>
       </c>
       <c r="I7">
-        <v>3.447912254120638E-26</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>3.763774354605576E-13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>4.592584220012034E-26</v>
       </c>
       <c r="L7">
-        <v>0.0002814000000022077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>7.339612845874106E-13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002075000002150773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -696,31 +744,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6.123233995739433E-16</v>
       </c>
       <c r="F8">
-        <v>10.00000000000325</v>
+        <v>10.00000000000436</v>
       </c>
       <c r="G8">
-        <v>160.714827258476</v>
+        <v>2.306526625555321</v>
       </c>
       <c r="H8">
-        <v>6.983757663617498</v>
+        <v>-6.59187424256225</v>
       </c>
       <c r="I8">
-        <v>4.459059470519461E-25</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>1.855109231940885E-12</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>7.653169216637073E-25</v>
       </c>
       <c r="L8">
-        <v>0.0002683000000018865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.075786487289376E-12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.0002808999997796491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -734,31 +788,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6.123233995736762E-16</v>
       </c>
       <c r="F9">
-        <v>9.999999999998757</v>
+        <v>9.999999999999995</v>
       </c>
       <c r="G9">
-        <v>13.73549208731055</v>
+        <v>2.93452615571825</v>
       </c>
       <c r="H9">
-        <v>12.35902550688143</v>
+        <v>12.00558485543895</v>
       </c>
       <c r="I9">
-        <v>4.892002225771034E-27</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>2.624424237825586E-13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>4.618653353810803E-28</v>
       </c>
       <c r="L9">
-        <v>0.0002224999999995703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.904078743900638E-14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.0002462000002196874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -772,31 +832,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6.123233995738734E-16</v>
       </c>
       <c r="F10">
-        <v>10.00000000000216</v>
+        <v>10.00000000000321</v>
       </c>
       <c r="G10">
-        <v>157.2172925025259</v>
+        <v>5.662373343389135</v>
       </c>
       <c r="H10">
-        <v>14.62248795385512</v>
+        <v>-13.48164241035803</v>
       </c>
       <c r="I10">
-        <v>2.526774896729421E-25</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>1.057867670148459E-12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>7.324006640586341E-25</v>
       </c>
       <c r="L10">
-        <v>0.0002224999999995703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.790233895132588E-12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.0002274999997098348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -810,28 +876,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6.123233995736742E-16</v>
       </c>
       <c r="F11">
-        <v>10.00000000000069</v>
+        <v>9.999999999999961</v>
       </c>
       <c r="G11">
-        <v>1.867347699426255</v>
+        <v>0.2940033822202804</v>
       </c>
       <c r="H11">
-        <v>9.02249510578469</v>
+        <v>9.017703695794902</v>
       </c>
       <c r="I11">
-        <v>7.699550984574394E-28</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>1.695017775519381E-13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>2.612299564546052E-28</v>
       </c>
       <c r="L11">
-        <v>0.0002247999999980266</v>
+        <v>4.869909135363073E-14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.0002265000002807938</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -480,16 +480,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>6.123233995737036E-16</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>10.00000000000044</v>
       </c>
       <c r="G2">
-        <v>11.44634962546341</v>
+        <v>98.78643070691872</v>
       </c>
       <c r="H2">
-        <v>-1.769212852564031</v>
+        <v>11.5822723964697</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.0003328000002511544</v>
+        <v>0.0002759000000001066</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -524,16 +524,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>6.123233995736967E-16</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>10.00000000000033</v>
       </c>
       <c r="G3">
-        <v>11.25049508124729</v>
+        <v>75.06396084646357</v>
       </c>
       <c r="H3">
-        <v>3.001104143055858</v>
+        <v>11.64389392130642</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.0003004000000146334</v>
+        <v>0.0002430000000002153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -568,16 +568,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>6.123233995736823E-16</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>10.00000000000009</v>
       </c>
       <c r="G4">
-        <v>3.244401957305168</v>
+        <v>78.47908238556136</v>
       </c>
       <c r="H4">
-        <v>0.6613146290390631</v>
+        <v>3.31111478193473</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <v>0.000237100000049395</v>
+        <v>0.0002412000000000525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -612,16 +612,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>6.123233995736602E-16</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>9.999999999999732</v>
       </c>
       <c r="G5">
-        <v>11.35167287813431</v>
+        <v>99.14362246342343</v>
       </c>
       <c r="H5">
-        <v>-1.827108881831054</v>
+        <v>11.49777387141685</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.0002488000000084867</v>
+        <v>0.0002380999999997968</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -656,16 +656,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>6.123233995737624E-16</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>10.0000000000014</v>
       </c>
       <c r="G6">
-        <v>0.9891455622647491</v>
+        <v>174.0653710224604</v>
       </c>
       <c r="H6">
-        <v>-9.515513878440718</v>
+        <v>9.566786990110417</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="N6">
-        <v>0.0002167000002373243</v>
+        <v>0.0002252999999998728</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -700,16 +700,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>6.123233995736152E-16</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>9.999999999998996</v>
       </c>
       <c r="G7">
-        <v>8.637298410841892</v>
+        <v>39.95877079615218</v>
       </c>
       <c r="H7">
-        <v>10.30858700626852</v>
+        <v>13.44878767412662</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002075000002150773</v>
+        <v>0.0002556000000000225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -744,16 +744,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>6.123233995739433E-16</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>10.00000000000436</v>
       </c>
       <c r="G8">
-        <v>2.306526625555321</v>
+        <v>160.7148272584745</v>
       </c>
       <c r="H8">
-        <v>-6.59187424256225</v>
+        <v>6.98375766361858</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -771,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="N8">
-        <v>0.0002808999997796491</v>
+        <v>0.000243999999999911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -788,16 +788,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>6.123233995736762E-16</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>9.999999999999995</v>
       </c>
       <c r="G9">
-        <v>2.93452615571825</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="H9">
-        <v>12.00558485543895</v>
+        <v>12.35902550688118</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0.0002462000002196874</v>
+        <v>0.0002578999999998111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -832,16 +832,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>6.123233995738734E-16</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>10.00000000000321</v>
       </c>
       <c r="G10">
-        <v>5.662373343389135</v>
+        <v>157.2172925025259</v>
       </c>
       <c r="H10">
-        <v>-13.48164241035803</v>
+        <v>14.62248795385683</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.0002274999997098348</v>
+        <v>0.0002230999999999206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -876,16 +876,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>6.123233995736742E-16</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>9.999999999999961</v>
       </c>
       <c r="G11">
-        <v>0.2940033822202804</v>
+        <v>1.867347699425874</v>
       </c>
       <c r="H11">
-        <v>9.017703695794902</v>
+        <v>9.022495105784763</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.0002265000002807938</v>
+        <v>0.0002162000000001107</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -416,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,25 +504,31 @@
         <v>11.5822723964697</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>70.56128143157291</v>
+      </c>
+      <c r="L2">
+        <v>15.80711097780725</v>
+      </c>
+      <c r="M2">
         <v>3.918382019510714E-27</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2.156748969569024E-13</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.0002759000000001066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.0002674999999783267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -536,25 +554,31 @@
         <v>11.64389392130642</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>53.1759286683852</v>
+      </c>
+      <c r="L3">
+        <v>18.32782196423901</v>
+      </c>
+      <c r="M3">
         <v>3.81254349076158E-27</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2.14676369353826E-13</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0002430000000002153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002462999999863769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -580,25 +604,31 @@
         <v>3.31111478193473</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>31.76784245603537</v>
+      </c>
+      <c r="L4">
+        <v>9.618122158120739</v>
+      </c>
+      <c r="M4">
         <v>9.243366165374418E-28</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2.224040598703054E-13</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>0.0002412000000000525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>0.0002368000000103621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -624,25 +654,31 @@
         <v>11.49777387141685</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>70.66253786388721</v>
+      </c>
+      <c r="L5">
+        <v>15.67687823027198</v>
+      </c>
+      <c r="M5">
         <v>1.485762209162658E-27</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.533717283904055E-13</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>0.0002380999999997968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>0.0002331999999967138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -668,25 +704,31 @@
         <v>9.566786990110417</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>149.7044734839216</v>
+      </c>
+      <c r="L6">
+        <v>4.67317101071214</v>
+      </c>
+      <c r="M6">
         <v>2.3728932100462E-25</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>1.016890486098248E-12</v>
       </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>0.0002252999999998728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>0.0002328000000204611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -712,25 +754,31 @@
         <v>13.44878767412662</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>30.28257116656449</v>
+      </c>
+      <c r="L7">
+        <v>22.87529985576319</v>
+      </c>
+      <c r="M7">
         <v>4.592584220012034E-26</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>7.339612845874106E-13</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0002556000000000225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.0002370999999925516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -756,25 +804,31 @@
         <v>6.98375766361858</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.61618025070032</v>
+      </c>
+      <c r="L8">
+        <v>3.973338297386365</v>
+      </c>
+      <c r="M8">
         <v>7.653169216637073E-25</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>3.075786487289376E-12</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>0.000243999999999911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>0.0002221999999960644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -800,25 +854,31 @@
         <v>12.35902550688118</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>12.15137765332862</v>
+      </c>
+      <c r="L9">
+        <v>22.28974380606778</v>
+      </c>
+      <c r="M9">
         <v>4.618653353810803E-28</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>8.904078743900638E-14</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.0002578999999998111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>0.0002151000000196746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -844,25 +904,31 @@
         <v>14.62248795385683</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>137.8318815863199</v>
+      </c>
+      <c r="L10">
+        <v>11.86534188679923</v>
+      </c>
+      <c r="M10">
         <v>7.324006640586341E-25</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1.790233895132588E-12</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0002230999999999206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.0002003000000172506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -888,22 +954,28 @@
         <v>9.022495105784763</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>4.782971926670535</v>
+      </c>
+      <c r="L11">
+        <v>18.26849864379143</v>
+      </c>
+      <c r="M11">
         <v>2.612299564546052E-28</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>4.869909135363073E-14</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002162000000001107</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0002058999999974276</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.0.xlsx
+++ b/tests/tests8/N 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
   <si>
     <t>П0_ист</t>
   </si>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.0002674999999783267</v>
+        <v>0.0002604000000019369</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -575,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002462999999863769</v>
+        <v>0.0002452999999889016</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -625,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="P4">
-        <v>0.0002368000000103621</v>
+        <v>0.0002503000000046995</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="P5">
-        <v>0.0002331999999967138</v>
+        <v>0.00024639999998044</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="P6">
-        <v>0.0002328000000204611</v>
+        <v>0.0002575999999976375</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -775,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.0002370999999925516</v>
+        <v>0.0002564000000120359</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -825,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>0.0002221999999960644</v>
+        <v>0.0002334999999789034</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -875,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>0.0002151000000196746</v>
+        <v>0.0002345000000048003</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.0002003000000172506</v>
+        <v>0.0001988999999866792</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -975,7 +975,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0002058999999974276</v>
+        <v>0.0002064999999902284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10.00000000000042</v>
+      </c>
+      <c r="G12">
+        <v>138.8377157880136</v>
+      </c>
+      <c r="H12">
+        <v>3.249023392313083</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>40.03006317522649</v>
+      </c>
+      <c r="L12">
+        <v>5.809547132347116</v>
+      </c>
+      <c r="M12">
+        <v>2.554566397623417E-26</v>
+      </c>
+      <c r="N12">
+        <v>3.527735125955172E-13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0.0002144000000043889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9.999999999999977</v>
+      </c>
+      <c r="G13">
+        <v>32.4485439978188</v>
+      </c>
+      <c r="H13">
+        <v>3.233702897851377</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.97012183948804</v>
+      </c>
+      <c r="L13">
+        <v>11.14346017967381</v>
+      </c>
+      <c r="M13">
+        <v>1.093126178607466E-27</v>
+      </c>
+      <c r="N13">
+        <v>1.616098110185524E-13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13">
+        <v>0.0002021999999897162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>10.00000000000024</v>
+      </c>
+      <c r="G14">
+        <v>27.74931162834136</v>
+      </c>
+      <c r="H14">
+        <v>11.88059635818518</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>21.32604566380097</v>
+      </c>
+      <c r="L14">
+        <v>21.47093508922566</v>
+      </c>
+      <c r="M14">
+        <v>2.025205435606836E-27</v>
+      </c>
+      <c r="N14">
+        <v>1.255639322506474E-13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>0.0002293999999949392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9.999999999998945</v>
+      </c>
+      <c r="G15">
+        <v>139.9864339032884</v>
+      </c>
+      <c r="H15">
+        <v>5.850494640417965</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>70.55697937574482</v>
+      </c>
+      <c r="L15">
+        <v>6.028251123834295</v>
+      </c>
+      <c r="M15">
+        <v>7.066389828069417E-26</v>
+      </c>
+      <c r="N15">
+        <v>8.525754835752701E-13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>0.0002048999999999523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9.99999999999855</v>
+      </c>
+      <c r="G16">
+        <v>92.50980187908307</v>
+      </c>
+      <c r="H16">
+        <v>12.27798062494929</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>67.0195921713175</v>
+      </c>
+      <c r="L16">
+        <v>17.25965100692796</v>
+      </c>
+      <c r="M16">
+        <v>3.876898298461872E-26</v>
+      </c>
+      <c r="N16">
+        <v>8.702338794045781E-13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>0.0002005999999994401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9.999999999999554</v>
+      </c>
+      <c r="G17">
+        <v>152.7871855083453</v>
+      </c>
+      <c r="H17">
+        <v>5.146751099051621</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>64.6668757330811</v>
+      </c>
+      <c r="L17">
+        <v>4.41979376758732</v>
+      </c>
+      <c r="M17">
+        <v>2.003800401095024E-26</v>
+      </c>
+      <c r="N17">
+        <v>4.559327428321977E-13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0002702000000169846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10.00000000000014</v>
+      </c>
+      <c r="G18">
+        <v>40.19239424763722</v>
+      </c>
+      <c r="H18">
+        <v>9.277960096808263</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>27.73953336539383</v>
+      </c>
+      <c r="L18">
+        <v>17.95146843906837</v>
+      </c>
+      <c r="M18">
+        <v>7.632223676209805E-28</v>
+      </c>
+      <c r="N18">
+        <v>1.043009005249514E-13</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0005161999999927502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>9.999999999998137</v>
+      </c>
+      <c r="G19">
+        <v>53.03970048367671</v>
+      </c>
+      <c r="H19">
+        <v>9.367041067261379</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>35.67338189562726</v>
+      </c>
+      <c r="L19">
+        <v>17.40876216301099</v>
+      </c>
+      <c r="M19">
+        <v>1.273158727901294E-25</v>
+      </c>
+      <c r="N19">
+        <v>1.278521434316657E-12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.0002451999999948384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>10.00000000000304</v>
+      </c>
+      <c r="G20">
+        <v>117.067363513128</v>
+      </c>
+      <c r="H20">
+        <v>9.065440484821945</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>77.36702495454841</v>
+      </c>
+      <c r="L20">
+        <v>11.12685015605612</v>
+      </c>
+      <c r="M20">
+        <v>2.066385468415386E-25</v>
+      </c>
+      <c r="N20">
+        <v>1.965718566444837E-12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0.000280300000014222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>10.00000000000028</v>
+      </c>
+      <c r="G21">
+        <v>17.55604831490163</v>
+      </c>
+      <c r="H21">
+        <v>12.13499660009884</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>14.65846372863819</v>
+      </c>
+      <c r="L21">
+        <v>21.98288036784546</v>
+      </c>
+      <c r="M21">
+        <v>5.097754480133218E-27</v>
+      </c>
+      <c r="N21">
+        <v>1.632182591403014E-13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.0002742000000068856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>10.00000000000364</v>
+      </c>
+      <c r="G22">
+        <v>105.8635441939115</v>
+      </c>
+      <c r="H22">
+        <v>13.77256473491928</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>80.46804950751162</v>
+      </c>
+      <c r="L22">
+        <v>17.30705658000742</v>
+      </c>
+      <c r="M22">
+        <v>1.512860146312806E-25</v>
+      </c>
+      <c r="N22">
+        <v>2.013333905316851E-12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>0.0002454000000113865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>10.00000000000002</v>
+      </c>
+      <c r="G23">
+        <v>8.770478545642955</v>
+      </c>
+      <c r="H23">
+        <v>6.469315917477803</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="L23">
+        <v>15.23897862130489</v>
+      </c>
+      <c r="M23">
+        <v>6.059457752813007E-29</v>
+      </c>
+      <c r="N23">
+        <v>2.546620033398204E-14</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.0002180999999836786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>9.999999999999808</v>
+      </c>
+      <c r="G24">
+        <v>37.52289672459166</v>
+      </c>
+      <c r="H24">
+        <v>8.780172741159957</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>25.73745290239639</v>
+      </c>
+      <c r="L24">
+        <v>17.4734957779708</v>
+      </c>
+      <c r="M24">
+        <v>6.634432966246597E-27</v>
+      </c>
+      <c r="N24">
+        <v>1.840367286473773E-13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.0002430000000117616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>9.999999999997243</v>
+      </c>
+      <c r="G25">
+        <v>93.11361909238401</v>
+      </c>
+      <c r="H25">
+        <v>14.36355124577289</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>70.671127972192</v>
+      </c>
+      <c r="L25">
+        <v>19.47923218856129</v>
+      </c>
+      <c r="M25">
+        <v>1.026098813401642E-25</v>
+      </c>
+      <c r="N25">
+        <v>1.507345789781534E-12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0.0002126999999916279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>10.00000000000491</v>
+      </c>
+      <c r="G26">
+        <v>172.8031146004616</v>
+      </c>
+      <c r="H26">
+        <v>11.39414459940181</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>154.9934456744293</v>
+      </c>
+      <c r="L26">
+        <v>6.821019905633265</v>
+      </c>
+      <c r="M26">
+        <v>3.935333217543218E-24</v>
+      </c>
+      <c r="N26">
+        <v>3.400322262377801E-12</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0002329000000145243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>10.00000000000646</v>
+      </c>
+      <c r="G27">
+        <v>156.6223445928948</v>
+      </c>
+      <c r="H27">
+        <v>9.987323144079284</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>121.400908818736</v>
+      </c>
+      <c r="L27">
+        <v>6.942709063972754</v>
+      </c>
+      <c r="M27">
+        <v>1.105639437375364E-24</v>
+      </c>
+      <c r="N27">
+        <v>3.868931669459529E-12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0.0002247999999838157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>9.999999999999838</v>
+      </c>
+      <c r="G28">
+        <v>55.4282914724947</v>
+      </c>
+      <c r="H28">
+        <v>9.232697751663331</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>36.97831507383874</v>
+      </c>
+      <c r="L28">
+        <v>17.11232764245996</v>
+      </c>
+      <c r="M28">
+        <v>2.761362225265252E-27</v>
+      </c>
+      <c r="N28">
+        <v>1.688676203693788E-13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.0008866000000011809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>10.00000000000235</v>
+      </c>
+      <c r="G29">
+        <v>76.62985389340344</v>
+      </c>
+      <c r="H29">
+        <v>12.77500488593842</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>55.80674075854465</v>
+      </c>
+      <c r="L29">
+        <v>19.44632462639768</v>
+      </c>
+      <c r="M29">
+        <v>1.284902630299329E-25</v>
+      </c>
+      <c r="N29">
+        <v>1.382711791890043E-12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0.0003573999999844091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>9.999999999998842</v>
+      </c>
+      <c r="G30">
+        <v>131.2224736120413</v>
+      </c>
+      <c r="H30">
+        <v>9.734875227930148</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>91.80924814573685</v>
+      </c>
+      <c r="L30">
+        <v>9.96199991282238</v>
+      </c>
+      <c r="M30">
+        <v>2.218214724239183E-26</v>
+      </c>
+      <c r="N30">
+        <v>7.163084764727095E-13</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.0003614999999967949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>10.0000000000021</v>
+      </c>
+      <c r="G31">
+        <v>155.476797402612</v>
+      </c>
+      <c r="H31">
+        <v>6.418871582733561</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>85.08185965409794</v>
+      </c>
+      <c r="L31">
+        <v>4.383667298315471</v>
+      </c>
+      <c r="M31">
+        <v>2.464502488905835E-25</v>
+      </c>
+      <c r="N31">
+        <v>1.666187318928128E-12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>0.0002352999999857275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>9.999999999998343</v>
+      </c>
+      <c r="G32">
+        <v>115.9458364922994</v>
+      </c>
+      <c r="H32">
+        <v>7.568981875619564</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>69.94009040741032</v>
+      </c>
+      <c r="L32">
+        <v>9.940826874934977</v>
+      </c>
+      <c r="M32">
+        <v>9.054895147886716E-26</v>
+      </c>
+      <c r="N32">
+        <v>1.078628681810331E-12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32">
+        <v>0.0002048000000058892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10.00000000000019</v>
+      </c>
+      <c r="G33">
+        <v>51.48968789889289</v>
+      </c>
+      <c r="H33">
+        <v>14.49726679822843</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>39.06160098440122</v>
+      </c>
+      <c r="L33">
+        <v>23.45979414801259</v>
+      </c>
+      <c r="M33">
+        <v>2.449636787537205E-27</v>
+      </c>
+      <c r="N33">
+        <v>1.598443785373973E-13</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0.0002323999999873649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>9.999999999994461</v>
+      </c>
+      <c r="G34">
+        <v>154.6000681127524</v>
+      </c>
+      <c r="H34">
+        <v>7.472533859697343</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>98.12939238316339</v>
+      </c>
+      <c r="L34">
+        <v>5.067646835569847</v>
+      </c>
+      <c r="M34">
+        <v>9.128481999793173E-25</v>
+      </c>
+      <c r="N34">
+        <v>3.699852011046369E-12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>0.0004321000000118147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>9.999999999999668</v>
+      </c>
+      <c r="G35">
+        <v>44.73182293879078</v>
+      </c>
+      <c r="H35">
+        <v>8.399705052609201</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>29.60621371940389</v>
+      </c>
+      <c r="L35">
+        <v>16.72833429475654</v>
+      </c>
+      <c r="M35">
+        <v>4.834370049810946E-27</v>
+      </c>
+      <c r="N35">
+        <v>2.390309058599848E-13</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0.0002504999999928259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>10.00000000000011</v>
+      </c>
+      <c r="G36">
+        <v>6.941102558653789</v>
+      </c>
+      <c r="H36">
+        <v>12.36120552629586</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="L36">
+        <v>22.30604591386252</v>
+      </c>
+      <c r="M36">
+        <v>4.963369172637498E-28</v>
+      </c>
+      <c r="N36">
+        <v>1.222020847925292E-13</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.0002168000000040138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>10.00000000000039</v>
+      </c>
+      <c r="G37">
+        <v>82.44989068033679</v>
+      </c>
+      <c r="H37">
+        <v>6.700195283579328</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>47.28302978168741</v>
+      </c>
+      <c r="L37">
+        <v>12.44155687331603</v>
+      </c>
+      <c r="M37">
+        <v>7.271281976067245E-27</v>
+      </c>
+      <c r="N37">
+        <v>3.311223024523282E-13</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>0.0002138000000115881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>9.999999999998725</v>
+      </c>
+      <c r="G38">
+        <v>131.1312944872305</v>
+      </c>
+      <c r="H38">
+        <v>10.2193705484408</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>93.75460165970777</v>
+      </c>
+      <c r="L38">
+        <v>10.42956719317647</v>
+      </c>
+      <c r="M38">
+        <v>2.417035569062766E-26</v>
+      </c>
+      <c r="N38">
+        <v>7.147011909076758E-13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>0.0002364000000056876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>10.00000000000359</v>
+      </c>
+      <c r="G39">
+        <v>170.0093885143114</v>
+      </c>
+      <c r="H39">
+        <v>8.569178091657085</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>132.8794796020864</v>
+      </c>
+      <c r="L39">
+        <v>4.031761962139787</v>
+      </c>
+      <c r="M39">
+        <v>6.937178712285161E-25</v>
+      </c>
+      <c r="N39">
+        <v>2.732686499857415E-12</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.0003450000000100317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>9.999999999998918</v>
+      </c>
+      <c r="G40">
+        <v>69.25916151301281</v>
+      </c>
+      <c r="H40">
+        <v>13.31649415908564</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>51.0142218875437</v>
+      </c>
+      <c r="L40">
+        <v>20.73148308181379</v>
+      </c>
+      <c r="M40">
+        <v>2.74307612831343E-26</v>
+      </c>
+      <c r="N40">
+        <v>6.719004439094446E-13</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0002406000000121367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>10.00000000000054</v>
+      </c>
+      <c r="G41">
+        <v>98.44004810616444</v>
+      </c>
+      <c r="H41">
+        <v>12.57478825539206</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>72.1976181627568</v>
+      </c>
+      <c r="L41">
+        <v>16.90630795593278</v>
+      </c>
+      <c r="M41">
+        <v>5.025916242108201E-27</v>
+      </c>
+      <c r="N41">
+        <v>2.833614561279026E-13</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0.0002368000000103621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>9.999999999999917</v>
+      </c>
+      <c r="G42">
+        <v>73.38366505445164</v>
+      </c>
+      <c r="H42">
+        <v>3.664392481342241</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>31.92625942098919</v>
+      </c>
+      <c r="L42">
+        <v>10.18120494273526</v>
+      </c>
+      <c r="M42">
+        <v>1.00001251113924E-27</v>
+      </c>
+      <c r="N42">
+        <v>1.888939395230877E-13</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>0.0002048000000058892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>9.999999999999984</v>
+      </c>
+      <c r="G43">
+        <v>45.16625227408937</v>
+      </c>
+      <c r="H43">
+        <v>3.553149848071298</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>21.98281729864148</v>
+      </c>
+      <c r="L43">
+        <v>11.2044292251545</v>
+      </c>
+      <c r="M43">
+        <v>2.515348240501044E-28</v>
+      </c>
+      <c r="N43">
+        <v>1.086398050823588E-13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>0.0002058000000033644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>10.00000000000236</v>
+      </c>
+      <c r="G44">
+        <v>67.41722139252741</v>
+      </c>
+      <c r="H44">
+        <v>14.40857167692318</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>50.70287428680244</v>
+      </c>
+      <c r="L44">
+        <v>22.14193003828379</v>
+      </c>
+      <c r="M44">
+        <v>1.258486760862482E-25</v>
+      </c>
+      <c r="N44">
+        <v>1.381907422018116E-12</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0.0002001999999947657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>9.999999999999924</v>
+      </c>
+      <c r="G45">
+        <v>20.70982195015999</v>
+      </c>
+      <c r="H45">
+        <v>10.30879847135402</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>16.30649399170488</v>
+      </c>
+      <c r="L45">
+        <v>19.7492982040528</v>
+      </c>
+      <c r="M45">
+        <v>1.763975479152231E-27</v>
+      </c>
+      <c r="N45">
+        <v>9.399404244191935E-14</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002818999999760763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>9.999999999999901</v>
+      </c>
+      <c r="G46">
+        <v>150.2715867598176</v>
+      </c>
+      <c r="H46">
+        <v>4.257553252438375</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>51.49320715697702</v>
+      </c>
+      <c r="L46">
+        <v>4.733318900758886</v>
+      </c>
+      <c r="M46">
+        <v>2.464112158835591E-27</v>
+      </c>
+      <c r="N46">
+        <v>1.851335518251467E-13</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46">
+        <v>0.0002071999999770924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>9.99999999999743</v>
+      </c>
+      <c r="G47">
+        <v>178.0220724256108</v>
+      </c>
+      <c r="H47">
+        <v>9.594536722133521</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>159.1796698056891</v>
+      </c>
+      <c r="L47">
+        <v>4.410985878452546</v>
+      </c>
+      <c r="M47">
+        <v>1.302331979707477E-24</v>
+      </c>
+      <c r="N47">
+        <v>2.070557112004493E-12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47">
+        <v>0.0002015999999969154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>10.00000000001477</v>
+      </c>
+      <c r="G48">
+        <v>141.0898231450336</v>
+      </c>
+      <c r="H48">
+        <v>10.61800447265358</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.4244541290955</v>
+      </c>
+      <c r="L48">
+        <v>9.516228537081387</v>
+      </c>
+      <c r="M48">
+        <v>3.259870990906614E-24</v>
+      </c>
+      <c r="N48">
+        <v>7.952165575260967E-12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0.0001924000000030901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>10.00000000000012</v>
+      </c>
+      <c r="G49">
+        <v>20.42792494085698</v>
+      </c>
+      <c r="H49">
+        <v>14.69379713323809</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>17.03401812828388</v>
+      </c>
+      <c r="L49">
+        <v>25.00422823336255</v>
+      </c>
+      <c r="M49">
+        <v>4.336147967912988E-27</v>
+      </c>
+      <c r="N49">
+        <v>2.061394395839114E-13</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>0.0002022999999837793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>9.99999999999986</v>
+      </c>
+      <c r="G50">
+        <v>3.14824876760751</v>
+      </c>
+      <c r="H50">
+        <v>13.69887920616351</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>4.97909142319359</v>
+      </c>
+      <c r="L50">
+        <v>23.88762442334638</v>
+      </c>
+      <c r="M50">
+        <v>7.212101272014771E-28</v>
+      </c>
+      <c r="N50">
+        <v>1.801932824584208E-13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>0.0002423999999905391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>10.00000000000059</v>
+      </c>
+      <c r="G51">
+        <v>54.17360205406496</v>
+      </c>
+      <c r="H51">
+        <v>5.964741983542493</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>31.07252442683651</v>
+      </c>
+      <c r="L51">
+        <v>13.51203653396684</v>
+      </c>
+      <c r="M51">
+        <v>3.629621926665828E-26</v>
+      </c>
+      <c r="N51">
+        <v>5.169878597108695E-13</v>
+      </c>
+      <c r="O51" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <v>0.0002130000000022392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>10.0000000000014</v>
+      </c>
+      <c r="G52">
+        <v>89.02829619684552</v>
+      </c>
+      <c r="H52">
+        <v>5.736997253393316</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>47.03792036458275</v>
+      </c>
+      <c r="L52">
+        <v>11.00547523311896</v>
+      </c>
+      <c r="M52">
+        <v>1.101886134698783E-25</v>
+      </c>
+      <c r="N52">
+        <v>1.180001497497287E-12</v>
+      </c>
+      <c r="O52" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52">
+        <v>0.0002020000000015898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>10.00000000000029</v>
+      </c>
+      <c r="G53">
+        <v>121.6316547906395</v>
+      </c>
+      <c r="H53">
+        <v>3.536546186435551</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>42.84508415968995</v>
+      </c>
+      <c r="L53">
+        <v>7.034854823509235</v>
+      </c>
+      <c r="M53">
+        <v>9.373577179751536E-27</v>
+      </c>
+      <c r="N53">
+        <v>3.481092046841655E-13</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.0002048999999999523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>9.999999999999961</v>
+      </c>
+      <c r="G54">
+        <v>148.1598613277633</v>
+      </c>
+      <c r="H54">
+        <v>3.313415778838399</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>39.20823517402565</v>
+      </c>
+      <c r="L54">
+        <v>5.169813417634917</v>
+      </c>
+      <c r="M54">
+        <v>1.324193500914736E-27</v>
+      </c>
+      <c r="N54">
+        <v>5.766498688740617E-14</v>
+      </c>
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>0.0002052000000105636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>9.99999999999098</v>
+      </c>
+      <c r="G55">
+        <v>152.3992332978281</v>
+      </c>
+      <c r="H55">
+        <v>9.733986483168582</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.2699214848497</v>
+      </c>
+      <c r="L55">
+        <v>7.220398177171616</v>
+      </c>
+      <c r="M55">
+        <v>1.636537053176951E-24</v>
+      </c>
+      <c r="N55">
+        <v>5.171631543090431E-12</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>0.0002409999999883894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>10.0000000000007</v>
+      </c>
+      <c r="G56">
+        <v>75.63293408534021</v>
+      </c>
+      <c r="H56">
+        <v>7.358873963581781</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>45.44565419211522</v>
+      </c>
+      <c r="L56">
+        <v>13.64739445873571</v>
+      </c>
+      <c r="M56">
+        <v>2.314968705346355E-26</v>
+      </c>
+      <c r="N56">
+        <v>6.106687305654022E-13</v>
+      </c>
+      <c r="O56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56">
+        <v>0.0002232000000219614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>9.999999999999719</v>
+      </c>
+      <c r="G57">
+        <v>16.75949160093412</v>
+      </c>
+      <c r="H57">
+        <v>14.6598710398772</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>14.44966940927685</v>
+      </c>
+      <c r="L57">
+        <v>25.01968713371022</v>
+      </c>
+      <c r="M57">
+        <v>1.524020952140836E-27</v>
+      </c>
+      <c r="N57">
+        <v>1.010926189571383E-13</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57">
+        <v>0.0002072999999995773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>9.999999999998934</v>
+      </c>
+      <c r="G58">
+        <v>177.1545330976658</v>
+      </c>
+      <c r="H58">
+        <v>7.000947192174793</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>122.3917356254022</v>
+      </c>
+      <c r="L58">
+        <v>1.880029101711374</v>
+      </c>
+      <c r="M58">
+        <v>1.142006865623251E-25</v>
+      </c>
+      <c r="N58">
+        <v>1.015672712029877E-12</v>
+      </c>
+      <c r="O58" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58">
+        <v>0.0002019999999731681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>9.999999999999982</v>
+      </c>
+      <c r="G59">
+        <v>15.72293572239146</v>
+      </c>
+      <c r="H59">
+        <v>5.765725194620701</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>12.23519148406906</v>
+      </c>
+      <c r="L59">
+        <v>14.37002887945803</v>
+      </c>
+      <c r="M59">
+        <v>9.587408711117467E-29</v>
+      </c>
+      <c r="N59">
+        <v>3.23780178877126E-14</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>0.000198799999992616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>10.00000000000104</v>
+      </c>
+      <c r="G60">
+        <v>65.71900494408682</v>
+      </c>
+      <c r="H60">
+        <v>8.41447099072113</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>41.9663168803005</v>
+      </c>
+      <c r="L60">
+        <v>15.51473424919778</v>
+      </c>
+      <c r="M60">
+        <v>3.811977941371317E-26</v>
+      </c>
+      <c r="N60">
+        <v>6.365339592962822E-13</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>0.0002083999999911157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>10.00000000000024</v>
+      </c>
+      <c r="G61">
+        <v>166.3263208033959</v>
+      </c>
+      <c r="H61">
+        <v>4.894446966417688</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>56.7640897616984</v>
+      </c>
+      <c r="L61">
+        <v>3.059300117779991</v>
+      </c>
+      <c r="M61">
+        <v>1.715499817129727E-26</v>
+      </c>
+      <c r="N61">
+        <v>2.557950385347732E-13</v>
+      </c>
+      <c r="O61" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61">
+        <v>0.0001967999999976655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>9.999999999999751</v>
+      </c>
+      <c r="G62">
+        <v>54.15719940839121</v>
+      </c>
+      <c r="H62">
+        <v>5.243349796102261</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>29.53509225686488</v>
+      </c>
+      <c r="L62">
+        <v>12.72106643331091</v>
+      </c>
+      <c r="M62">
+        <v>6.564412565547425E-27</v>
+      </c>
+      <c r="N62">
+        <v>1.992292658238577E-13</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>0.0001934000000005653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>10.00000000000088</v>
+      </c>
+      <c r="G63">
+        <v>148.4045056643894</v>
+      </c>
+      <c r="H63">
+        <v>5.176196789967141</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>64.68552660313914</v>
+      </c>
+      <c r="L63">
+        <v>4.894765047517073</v>
+      </c>
+      <c r="M63">
+        <v>7.793617333455979E-26</v>
+      </c>
+      <c r="N63">
+        <v>8.776376850202122E-13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0001910999999950036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>10.00000000000001</v>
+      </c>
+      <c r="G64">
+        <v>6.07584787617743</v>
+      </c>
+      <c r="H64">
+        <v>8.869290095586843</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>7.285415246674729</v>
+      </c>
+      <c r="L64">
+        <v>18.11323190547837</v>
+      </c>
+      <c r="M64">
+        <v>3.961538824172415E-28</v>
+      </c>
+      <c r="N64">
+        <v>1.025337345400049E-13</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0001922000000149637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>9.999999999999636</v>
+      </c>
+      <c r="G65">
+        <v>99.70938405010504</v>
+      </c>
+      <c r="H65">
+        <v>7.754974724464016</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>60.65836173835763</v>
+      </c>
+      <c r="L65">
+        <v>11.86528034063034</v>
+      </c>
+      <c r="M65">
+        <v>4.538601184165307E-27</v>
+      </c>
+      <c r="N65">
+        <v>1.971169613156882E-13</v>
+      </c>
+      <c r="O65" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65">
+        <v>0.0002001999999947657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>10.00000000000016</v>
+      </c>
+      <c r="G66">
+        <v>68.23773457807839</v>
+      </c>
+      <c r="H66">
+        <v>9.805178006155719</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>45.84590763886551</v>
+      </c>
+      <c r="L66">
+        <v>16.86218162216296</v>
+      </c>
+      <c r="M66">
+        <v>7.029442284421642E-27</v>
+      </c>
+      <c r="N66">
+        <v>2.216740792941347E-13</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0001979000000176256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>9.999999999999877</v>
+      </c>
+      <c r="G67">
+        <v>39.35610902649603</v>
+      </c>
+      <c r="H67">
+        <v>3.376832634031</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>19.57687427078934</v>
+      </c>
+      <c r="L67">
+        <v>11.16212898988567</v>
+      </c>
+      <c r="M67">
+        <v>1.196002305788558E-27</v>
+      </c>
+      <c r="N67">
+        <v>1.188825332662821E-13</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67">
+        <v>0.0002116000000000895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>9.999999999999776</v>
+      </c>
+      <c r="G68">
+        <v>27.77176406362915</v>
+      </c>
+      <c r="H68">
+        <v>4.604394728400519</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.96964631110568</v>
+      </c>
+      <c r="L68">
+        <v>12.83113260813641</v>
+      </c>
+      <c r="M68">
+        <v>7.213178508948605E-27</v>
+      </c>
+      <c r="N68">
+        <v>3.981463869494745E-13</v>
+      </c>
+      <c r="O68" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68">
+        <v>0.0001932999999780805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>10.00000000000391</v>
+      </c>
+      <c r="G69">
+        <v>98.25325738829919</v>
+      </c>
+      <c r="H69">
+        <v>13.30627932710275</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>73.3015905009552</v>
+      </c>
+      <c r="L69">
+        <v>17.71985515777416</v>
+      </c>
+      <c r="M69">
+        <v>1.981763836430752E-25</v>
+      </c>
+      <c r="N69">
+        <v>2.260729411974127E-12</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0.0001870000000110394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>9.999999999999744</v>
+      </c>
+      <c r="G70">
+        <v>46.68686459071845</v>
+      </c>
+      <c r="H70">
+        <v>3.520332613942712</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>22.43075918953536</v>
+      </c>
+      <c r="L70">
+        <v>11.12306944814037</v>
+      </c>
+      <c r="M70">
+        <v>4.999995228387835E-27</v>
+      </c>
+      <c r="N70">
+        <v>2.299429301570162E-13</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70">
+        <v>0.0001985999999760679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>10.00000000000037</v>
+      </c>
+      <c r="G71">
+        <v>53.3248491010383</v>
+      </c>
+      <c r="H71">
+        <v>12.7088125880806</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>39.09766949772926</v>
+      </c>
+      <c r="L71">
+        <v>21.25119773846895</v>
+      </c>
+      <c r="M71">
+        <v>7.046880057288068E-27</v>
+      </c>
+      <c r="N71">
+        <v>2.911918477670848E-13</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0002103999999860662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>10.00000000000313</v>
+      </c>
+      <c r="G72">
+        <v>166.9464969514109</v>
+      </c>
+      <c r="H72">
+        <v>13.46911553291563</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>150.0337683635534</v>
+      </c>
+      <c r="L72">
+        <v>9.651912212973375</v>
+      </c>
+      <c r="M72">
+        <v>1.444849460575151E-24</v>
+      </c>
+      <c r="N72">
+        <v>1.890645028681704E-12</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0.0002111000000013519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>9.999999999999908</v>
+      </c>
+      <c r="G73">
+        <v>33.40354946733678</v>
+      </c>
+      <c r="H73">
+        <v>7.63919163650483</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>22.46395608561931</v>
+      </c>
+      <c r="L73">
+        <v>16.27104575612629</v>
+      </c>
+      <c r="M73">
+        <v>4.053103963548256E-28</v>
+      </c>
+      <c r="N73">
+        <v>6.19230401147662E-14</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>0.0001933000000065022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>9.999999999999899</v>
+      </c>
+      <c r="G74">
+        <v>19.21287640595582</v>
+      </c>
+      <c r="H74">
+        <v>11.21211159934397</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>15.57133329969274</v>
+      </c>
+      <c r="L74">
+        <v>20.854198471831</v>
+      </c>
+      <c r="M74">
+        <v>1.37590087373874E-27</v>
+      </c>
+      <c r="N74">
+        <v>1.01668256283347E-13</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.0001934000000005653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>9.999999999999305</v>
+      </c>
+      <c r="G75">
+        <v>115.6841848414939</v>
+      </c>
+      <c r="H75">
+        <v>9.463451171626449</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>77.81913838663874</v>
+      </c>
+      <c r="L75">
+        <v>11.66724248977561</v>
+      </c>
+      <c r="M75">
+        <v>1.103444930205694E-26</v>
+      </c>
+      <c r="N75">
+        <v>4.122354055291835E-13</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0001862999999957538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>10.00000000000051</v>
+      </c>
+      <c r="G76">
+        <v>36.39641281744418</v>
+      </c>
+      <c r="H76">
+        <v>12.41457124932738</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>27.32317301036203</v>
+      </c>
+      <c r="L76">
+        <v>21.80818795838102</v>
+      </c>
+      <c r="M76">
+        <v>6.954910954062041E-27</v>
+      </c>
+      <c r="N76">
+        <v>3.400639390776264E-13</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.0002054999999927531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>10.00000000000063</v>
+      </c>
+      <c r="G77">
+        <v>102.4092396214662</v>
+      </c>
+      <c r="H77">
+        <v>3.791570731073712</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>41.23088095385234</v>
+      </c>
+      <c r="L77">
+        <v>8.517806771191234</v>
+      </c>
+      <c r="M77">
+        <v>3.530724843409083E-26</v>
+      </c>
+      <c r="N77">
+        <v>5.127922491916518E-13</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0.0001936000000171134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>10.00000000000193</v>
+      </c>
+      <c r="G78">
+        <v>55.94936395614604</v>
+      </c>
+      <c r="H78">
+        <v>12.82784664862931</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>41.02759868558799</v>
+      </c>
+      <c r="L78">
+        <v>21.21280471567772</v>
+      </c>
+      <c r="M78">
+        <v>1.113436807721812E-25</v>
+      </c>
+      <c r="N78">
+        <v>1.222759861800907E-12</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.0001934999999946285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>9.999999999991706</v>
+      </c>
+      <c r="G79">
+        <v>165.4396257238582</v>
+      </c>
+      <c r="H79">
+        <v>10.70634719907489</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>138.9401716507766</v>
+      </c>
+      <c r="L79">
+        <v>6.699196495649128</v>
+      </c>
+      <c r="M79">
+        <v>4.646228459649902E-24</v>
+      </c>
+      <c r="N79">
+        <v>5.381028977718728E-12</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0001889000000119267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>10.0000000000001</v>
+      </c>
+      <c r="G80">
+        <v>8.672620950042903</v>
+      </c>
+      <c r="H80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>8.792537788842527</v>
+      </c>
+      <c r="L80">
+        <v>20.88161751407366</v>
+      </c>
+      <c r="M80">
+        <v>2.35376270042603E-28</v>
+      </c>
+      <c r="N80">
+        <v>8.361752925562535E-14</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0001989999999807424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>10.00000000000103</v>
+      </c>
+      <c r="G81">
+        <v>90.1202627412698</v>
+      </c>
+      <c r="H81">
+        <v>8.616809111378599</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>57.39789300421801</v>
+      </c>
+      <c r="L81">
+        <v>13.66352932901208</v>
+      </c>
+      <c r="M81">
+        <v>3.328810245623681E-26</v>
+      </c>
+      <c r="N81">
+        <v>6.888007403834788E-13</v>
+      </c>
+      <c r="O81" t="s">
+        <v>16</v>
+      </c>
+      <c r="P81">
+        <v>0.0002046999999834043</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10.00000000000218</v>
+      </c>
+      <c r="G82">
+        <v>93.94482897004808</v>
+      </c>
+      <c r="H82">
+        <v>11.3928764041791</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>66.48783954982675</v>
+      </c>
+      <c r="L82">
+        <v>16.15039452812505</v>
+      </c>
+      <c r="M82">
+        <v>8.502055470260694E-26</v>
+      </c>
+      <c r="N82">
+        <v>1.302841480488922E-12</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0001880000000085147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>9.999999999999346</v>
+      </c>
+      <c r="G83">
+        <v>63.97544120494143</v>
+      </c>
+      <c r="H83">
+        <v>7.090186520270968</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>38.41591187930376</v>
+      </c>
+      <c r="L83">
+        <v>14.18810202132202</v>
+      </c>
+      <c r="M83">
+        <v>2.086291502486028E-26</v>
+      </c>
+      <c r="N83">
+        <v>4.937954417667624E-13</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83">
+        <v>0.0001943000000039774</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>9.999999999999627</v>
+      </c>
+      <c r="G84">
+        <v>49.54062056424031</v>
+      </c>
+      <c r="H84">
+        <v>10.6707691311027</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>34.8159064177491</v>
+      </c>
+      <c r="L84">
+        <v>19.11454519061152</v>
+      </c>
+      <c r="M84">
+        <v>5.704373528498164E-27</v>
+      </c>
+      <c r="N84">
+        <v>2.26781267608343E-13</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0002143000000103257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>10.00000000000002</v>
+      </c>
+      <c r="G85">
+        <v>46.26763687892535</v>
+      </c>
+      <c r="H85">
+        <v>11.20545099685281</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>33.13287081288789</v>
+      </c>
+      <c r="L85">
+        <v>19.91760304290347</v>
+      </c>
+      <c r="M85">
+        <v>4.995686280652502E-28</v>
+      </c>
+      <c r="N85">
+        <v>3.713128110498342E-14</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0002321000000051754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>10.00000000000001</v>
+      </c>
+      <c r="G86">
+        <v>8.287378853667359</v>
+      </c>
+      <c r="H86">
+        <v>7.442907793387066</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>8.615529210004828</v>
+      </c>
+      <c r="L86">
+        <v>16.40699998673894</v>
+      </c>
+      <c r="M86">
+        <v>2.95162919870358E-28</v>
+      </c>
+      <c r="N86">
+        <v>6.016061688587403E-14</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>0.0002418999999918015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>9.999999999998403</v>
+      </c>
+      <c r="G87">
+        <v>111.667286619585</v>
+      </c>
+      <c r="H87">
+        <v>9.107436823742884</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>73.53144854422582</v>
+      </c>
+      <c r="L87">
+        <v>11.81175051977283</v>
+      </c>
+      <c r="M87">
+        <v>5.885497453460582E-26</v>
+      </c>
+      <c r="N87">
+        <v>1.02921435692802E-12</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>0.0001966000000095391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>10.00000000000013</v>
+      </c>
+      <c r="G88">
+        <v>36.46925165320037</v>
+      </c>
+      <c r="H88">
+        <v>5.485117248731877</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>21.84848718910428</v>
+      </c>
+      <c r="L88">
+        <v>13.65786460130114</v>
+      </c>
+      <c r="M88">
+        <v>2.739413522738396E-27</v>
+      </c>
+      <c r="N88">
+        <v>2.446206259061489E-13</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>0.0002068999999949028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>10.00000000000356</v>
+      </c>
+      <c r="G89">
+        <v>118.1275533419336</v>
+      </c>
+      <c r="H89">
+        <v>14.45881652296511</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>92.76682182171859</v>
+      </c>
+      <c r="L89">
+        <v>16.49115940111098</v>
+      </c>
+      <c r="M89">
+        <v>1.169689397975134E-25</v>
+      </c>
+      <c r="N89">
+        <v>1.849781297617242E-12</v>
+      </c>
+      <c r="O89" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <v>0.0001934000000005653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>10.00000000000171</v>
+      </c>
+      <c r="G90">
+        <v>116.5591888835452</v>
+      </c>
+      <c r="H90">
+        <v>9.08579625855911</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>77.06502614626091</v>
+      </c>
+      <c r="L90">
+        <v>11.20723949811793</v>
+      </c>
+      <c r="M90">
+        <v>6.477937370683945E-26</v>
+      </c>
+      <c r="N90">
+        <v>1.078118215840345E-12</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>0.0001922999999806052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>10.00000000000069</v>
+      </c>
+      <c r="G91">
+        <v>89.94497768439122</v>
+      </c>
+      <c r="H91">
+        <v>6.071245611740673</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>48.84601329812407</v>
+      </c>
+      <c r="L91">
+        <v>11.23051578470456</v>
+      </c>
+      <c r="M91">
+        <v>2.376243288688967E-26</v>
+      </c>
+      <c r="N91">
+        <v>4.378156327986766E-13</v>
+      </c>
+      <c r="O91" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91">
+        <v>0.0002416000000096119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>10.00000000000005</v>
+      </c>
+      <c r="G92">
+        <v>27.54975577790663</v>
+      </c>
+      <c r="H92">
+        <v>4.89222793211289</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>17.15395993153112</v>
+      </c>
+      <c r="L92">
+        <v>13.17470023696126</v>
+      </c>
+      <c r="M92">
+        <v>1.478507691686374E-28</v>
+      </c>
+      <c r="N92">
+        <v>9.636185344775768E-14</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0001961000000108015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>10.00000000000025</v>
+      </c>
+      <c r="G93">
+        <v>36.18064730123607</v>
+      </c>
+      <c r="H93">
+        <v>6.948245597906274</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>23.34892049549807</v>
+      </c>
+      <c r="L93">
+        <v>15.37253312835506</v>
+      </c>
+      <c r="M93">
+        <v>2.720831185629769E-27</v>
+      </c>
+      <c r="N93">
+        <v>1.293128592815035E-13</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>0.0002077999999983149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>10.00000000000239</v>
+      </c>
+      <c r="G94">
+        <v>159.4584898987716</v>
+      </c>
+      <c r="H94">
+        <v>12.4629788016484</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>135.8914103371111</v>
+      </c>
+      <c r="L94">
+        <v>9.221215218236329</v>
+      </c>
+      <c r="M94">
+        <v>3.425501388763254E-25</v>
+      </c>
+      <c r="N94">
+        <v>1.431946590529992E-12</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.0002026999999884538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>9.999999999991216</v>
+      </c>
+      <c r="G95">
+        <v>109.1437807997599</v>
+      </c>
+      <c r="H95">
+        <v>10.89013882340123</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>77.08991880557922</v>
+      </c>
+      <c r="L95">
+        <v>13.86645042165716</v>
+      </c>
+      <c r="M95">
+        <v>1.278154679283223E-24</v>
+      </c>
+      <c r="N95">
+        <v>5.323774532257818E-12</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.0001875000000097771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>9.999999999993564</v>
+      </c>
+      <c r="G96">
+        <v>129.4894415239114</v>
+      </c>
+      <c r="H96">
+        <v>10.28665410745497</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>92.49633076775953</v>
+      </c>
+      <c r="L96">
+        <v>10.70698393476444</v>
+      </c>
+      <c r="M96">
+        <v>6.14075712217521E-25</v>
+      </c>
+      <c r="N96">
+        <v>3.715479595755251E-12</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0.0002339000000119995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>9.999999999999881</v>
+      </c>
+      <c r="G97">
+        <v>41.18462776024172</v>
+      </c>
+      <c r="H97">
+        <v>5.288256223490152</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>23.74542453059517</v>
+      </c>
+      <c r="L97">
+        <v>13.28409758323293</v>
+      </c>
+      <c r="M97">
+        <v>8.09812865009276E-28</v>
+      </c>
+      <c r="N97">
+        <v>1.504714130962823E-13</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97">
+        <v>0.0002039000000024771</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>10.00000000000057</v>
+      </c>
+      <c r="G98">
+        <v>38.64364002302933</v>
+      </c>
+      <c r="H98">
+        <v>13.91402845610106</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>29.58813609103354</v>
+      </c>
+      <c r="L98">
+        <v>23.48744640074248</v>
+      </c>
+      <c r="M98">
+        <v>1.399600086283076E-26</v>
+      </c>
+      <c r="N98">
+        <v>4.284999027256134E-13</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0.0002329000000145243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>10.0000000000006</v>
+      </c>
+      <c r="G99">
+        <v>150.6499423676141</v>
+      </c>
+      <c r="H99">
+        <v>14.64283022328503</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>129.0361471861459</v>
+      </c>
+      <c r="L99">
+        <v>12.5947691524402</v>
+      </c>
+      <c r="M99">
+        <v>1.410996767945608E-26</v>
+      </c>
+      <c r="N99">
+        <v>3.225662904150851E-13</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99">
+        <v>0.0001853999999923417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>9.999999999988384</v>
+      </c>
+      <c r="G100">
+        <v>131.8081046523922</v>
+      </c>
+      <c r="H100">
+        <v>9.806268185395085</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>92.65513206400648</v>
+      </c>
+      <c r="L100">
+        <v>9.95243405092412</v>
+      </c>
+      <c r="M100">
+        <v>2.169577150549488E-24</v>
+      </c>
+      <c r="N100">
+        <v>6.814290221169022E-12</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0.000210299999992003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>10.0000000000036</v>
+      </c>
+      <c r="G101">
+        <v>121.0101405535437</v>
+      </c>
+      <c r="H101">
+        <v>8.856940790891493</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>79.48494662297509</v>
+      </c>
+      <c r="L101">
+        <v>10.45531743299662</v>
+      </c>
+      <c r="M101">
+        <v>2.98549555016362E-25</v>
+      </c>
+      <c r="N101">
+        <v>2.26210006072457E-12</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0.0002269000000012511</v>
       </c>
     </row>
   </sheetData>
